--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP282"/>
+  <dimension ref="A1:AP307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3272,7 +3272,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057,vocab:1252,vocab:1244</t>
+          <t>vocab:1000,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057,vocab:1252,vocab:1244,vocab:1263,vocab:1259</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr"/>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>addressed population</t>
+          <t>urinary samples information</t>
         </is>
       </c>
       <c r="C279" t="inlineStr"/>
@@ -17202,7 +17202,7 @@
       <c r="X279" t="inlineStr"/>
       <c r="Y279" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="Z279" t="inlineStr"/>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>first population</t>
+          <t>creatinine</t>
         </is>
       </c>
       <c r="C280" t="inlineStr"/>
@@ -17262,7 +17262,7 @@
       <c r="X280" t="inlineStr"/>
       <c r="Y280" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="Z280" t="inlineStr"/>
@@ -17291,7 +17291,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>second population</t>
+          <t>specific gravity</t>
         </is>
       </c>
       <c r="C281" t="inlineStr"/>
@@ -17322,7 +17322,7 @@
       <c r="X281" t="inlineStr"/>
       <c r="Y281" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="Z281" t="inlineStr"/>
@@ -17351,7 +17351,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>third population</t>
+          <t>osmolarity</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -17382,7 +17382,7 @@
       <c r="X282" t="inlineStr"/>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>2023-12-28</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="Z282" t="inlineStr"/>
@@ -17403,6 +17403,1490 @@
       <c r="AO282" t="inlineStr"/>
       <c r="AP282" t="inlineStr"/>
     </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>blood samples information</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr"/>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr"/>
+      <c r="AA283" t="inlineStr"/>
+      <c r="AB283" t="inlineStr"/>
+      <c r="AC283" t="inlineStr"/>
+      <c r="AD283" t="inlineStr"/>
+      <c r="AE283" t="inlineStr"/>
+      <c r="AF283" t="inlineStr"/>
+      <c r="AG283" t="inlineStr"/>
+      <c r="AH283" t="inlineStr"/>
+      <c r="AI283" t="inlineStr"/>
+      <c r="AJ283" t="inlineStr"/>
+      <c r="AK283" t="inlineStr"/>
+      <c r="AL283" t="inlineStr"/>
+      <c r="AM283" t="inlineStr"/>
+      <c r="AN283" t="inlineStr"/>
+      <c r="AO283" t="inlineStr"/>
+      <c r="AP283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>vocab:1264</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>gravimetric</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr"/>
+      <c r="D284" t="inlineStr"/>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr"/>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr"/>
+      <c r="AA284" t="inlineStr"/>
+      <c r="AB284" t="inlineStr"/>
+      <c r="AC284" t="inlineStr"/>
+      <c r="AD284" t="inlineStr"/>
+      <c r="AE284" t="inlineStr"/>
+      <c r="AF284" t="inlineStr"/>
+      <c r="AG284" t="inlineStr"/>
+      <c r="AH284" t="inlineStr"/>
+      <c r="AI284" t="inlineStr"/>
+      <c r="AJ284" t="inlineStr"/>
+      <c r="AK284" t="inlineStr"/>
+      <c r="AL284" t="inlineStr"/>
+      <c r="AM284" t="inlineStr"/>
+      <c r="AN284" t="inlineStr"/>
+      <c r="AO284" t="inlineStr"/>
+      <c r="AP284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>vocab:1265</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>enzymatic</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr"/>
+      <c r="D285" t="inlineStr"/>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr"/>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr"/>
+      <c r="AA285" t="inlineStr"/>
+      <c r="AB285" t="inlineStr"/>
+      <c r="AC285" t="inlineStr"/>
+      <c r="AD285" t="inlineStr"/>
+      <c r="AE285" t="inlineStr"/>
+      <c r="AF285" t="inlineStr"/>
+      <c r="AG285" t="inlineStr"/>
+      <c r="AH285" t="inlineStr"/>
+      <c r="AI285" t="inlineStr"/>
+      <c r="AJ285" t="inlineStr"/>
+      <c r="AK285" t="inlineStr"/>
+      <c r="AL285" t="inlineStr"/>
+      <c r="AM285" t="inlineStr"/>
+      <c r="AN285" t="inlineStr"/>
+      <c r="AO285" t="inlineStr"/>
+      <c r="AP285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>vocab:1266</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>vocab:1263,vocab:1259</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr"/>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr"/>
+      <c r="AA286" t="inlineStr"/>
+      <c r="AB286" t="inlineStr"/>
+      <c r="AC286" t="inlineStr"/>
+      <c r="AD286" t="inlineStr"/>
+      <c r="AE286" t="inlineStr"/>
+      <c r="AF286" t="inlineStr"/>
+      <c r="AG286" t="inlineStr"/>
+      <c r="AH286" t="inlineStr"/>
+      <c r="AI286" t="inlineStr"/>
+      <c r="AJ286" t="inlineStr"/>
+      <c r="AK286" t="inlineStr"/>
+      <c r="AL286" t="inlineStr"/>
+      <c r="AM286" t="inlineStr"/>
+      <c r="AN286" t="inlineStr"/>
+      <c r="AO286" t="inlineStr"/>
+      <c r="AP286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>vocab:1267</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>unit of measure</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr"/>
+      <c r="D287" t="inlineStr"/>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr"/>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr"/>
+      <c r="AA287" t="inlineStr"/>
+      <c r="AB287" t="inlineStr"/>
+      <c r="AC287" t="inlineStr"/>
+      <c r="AD287" t="inlineStr"/>
+      <c r="AE287" t="inlineStr"/>
+      <c r="AF287" t="inlineStr"/>
+      <c r="AG287" t="inlineStr"/>
+      <c r="AH287" t="inlineStr"/>
+      <c r="AI287" t="inlineStr"/>
+      <c r="AJ287" t="inlineStr"/>
+      <c r="AK287" t="inlineStr"/>
+      <c r="AL287" t="inlineStr"/>
+      <c r="AM287" t="inlineStr"/>
+      <c r="AN287" t="inlineStr"/>
+      <c r="AO287" t="inlineStr"/>
+      <c r="AP287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>vocab:1268</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>mL</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr"/>
+      <c r="D288" t="inlineStr"/>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
+      <c r="S288" t="inlineStr"/>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr"/>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="inlineStr"/>
+      <c r="X288" t="inlineStr"/>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr"/>
+      <c r="AA288" t="inlineStr"/>
+      <c r="AB288" t="inlineStr"/>
+      <c r="AC288" t="inlineStr"/>
+      <c r="AD288" t="inlineStr"/>
+      <c r="AE288" t="inlineStr"/>
+      <c r="AF288" t="inlineStr"/>
+      <c r="AG288" t="inlineStr"/>
+      <c r="AH288" t="inlineStr"/>
+      <c r="AI288" t="inlineStr"/>
+      <c r="AJ288" t="inlineStr"/>
+      <c r="AK288" t="inlineStr"/>
+      <c r="AL288" t="inlineStr"/>
+      <c r="AM288" t="inlineStr"/>
+      <c r="AN288" t="inlineStr"/>
+      <c r="AO288" t="inlineStr"/>
+      <c r="AP288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>vocab:1269</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>µL</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr"/>
+      <c r="D289" t="inlineStr"/>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="inlineStr"/>
+      <c r="O289" t="inlineStr"/>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr"/>
+      <c r="S289" t="inlineStr"/>
+      <c r="T289" t="inlineStr"/>
+      <c r="U289" t="inlineStr"/>
+      <c r="V289" t="inlineStr"/>
+      <c r="W289" t="inlineStr"/>
+      <c r="X289" t="inlineStr"/>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr"/>
+      <c r="AA289" t="inlineStr"/>
+      <c r="AB289" t="inlineStr"/>
+      <c r="AC289" t="inlineStr"/>
+      <c r="AD289" t="inlineStr"/>
+      <c r="AE289" t="inlineStr"/>
+      <c r="AF289" t="inlineStr"/>
+      <c r="AG289" t="inlineStr"/>
+      <c r="AH289" t="inlineStr"/>
+      <c r="AI289" t="inlineStr"/>
+      <c r="AJ289" t="inlineStr"/>
+      <c r="AK289" t="inlineStr"/>
+      <c r="AL289" t="inlineStr"/>
+      <c r="AM289" t="inlineStr"/>
+      <c r="AN289" t="inlineStr"/>
+      <c r="AO289" t="inlineStr"/>
+      <c r="AP289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>vocab:1270</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr"/>
+      <c r="D290" t="inlineStr"/>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
+      <c r="W290" t="inlineStr"/>
+      <c r="X290" t="inlineStr"/>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr"/>
+      <c r="AA290" t="inlineStr"/>
+      <c r="AB290" t="inlineStr"/>
+      <c r="AC290" t="inlineStr"/>
+      <c r="AD290" t="inlineStr"/>
+      <c r="AE290" t="inlineStr"/>
+      <c r="AF290" t="inlineStr"/>
+      <c r="AG290" t="inlineStr"/>
+      <c r="AH290" t="inlineStr"/>
+      <c r="AI290" t="inlineStr"/>
+      <c r="AJ290" t="inlineStr"/>
+      <c r="AK290" t="inlineStr"/>
+      <c r="AL290" t="inlineStr"/>
+      <c r="AM290" t="inlineStr"/>
+      <c r="AN290" t="inlineStr"/>
+      <c r="AO290" t="inlineStr"/>
+      <c r="AP290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>vocab:1271</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>mg</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr"/>
+      <c r="D291" t="inlineStr"/>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="inlineStr"/>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr"/>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr"/>
+      <c r="AA291" t="inlineStr"/>
+      <c r="AB291" t="inlineStr"/>
+      <c r="AC291" t="inlineStr"/>
+      <c r="AD291" t="inlineStr"/>
+      <c r="AE291" t="inlineStr"/>
+      <c r="AF291" t="inlineStr"/>
+      <c r="AG291" t="inlineStr"/>
+      <c r="AH291" t="inlineStr"/>
+      <c r="AI291" t="inlineStr"/>
+      <c r="AJ291" t="inlineStr"/>
+      <c r="AK291" t="inlineStr"/>
+      <c r="AL291" t="inlineStr"/>
+      <c r="AM291" t="inlineStr"/>
+      <c r="AN291" t="inlineStr"/>
+      <c r="AO291" t="inlineStr"/>
+      <c r="AP291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>vocab:1272</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>µg</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
+      <c r="S292" t="inlineStr"/>
+      <c r="T292" t="inlineStr"/>
+      <c r="U292" t="inlineStr"/>
+      <c r="V292" t="inlineStr"/>
+      <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr"/>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr"/>
+      <c r="AA292" t="inlineStr"/>
+      <c r="AB292" t="inlineStr"/>
+      <c r="AC292" t="inlineStr"/>
+      <c r="AD292" t="inlineStr"/>
+      <c r="AE292" t="inlineStr"/>
+      <c r="AF292" t="inlineStr"/>
+      <c r="AG292" t="inlineStr"/>
+      <c r="AH292" t="inlineStr"/>
+      <c r="AI292" t="inlineStr"/>
+      <c r="AJ292" t="inlineStr"/>
+      <c r="AK292" t="inlineStr"/>
+      <c r="AL292" t="inlineStr"/>
+      <c r="AM292" t="inlineStr"/>
+      <c r="AN292" t="inlineStr"/>
+      <c r="AO292" t="inlineStr"/>
+      <c r="AP292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>vocab:1273</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>cm</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>vocab:1263</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="inlineStr"/>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
+      <c r="W293" t="inlineStr"/>
+      <c r="X293" t="inlineStr"/>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr"/>
+      <c r="AA293" t="inlineStr"/>
+      <c r="AB293" t="inlineStr"/>
+      <c r="AC293" t="inlineStr"/>
+      <c r="AD293" t="inlineStr"/>
+      <c r="AE293" t="inlineStr"/>
+      <c r="AF293" t="inlineStr"/>
+      <c r="AG293" t="inlineStr"/>
+      <c r="AH293" t="inlineStr"/>
+      <c r="AI293" t="inlineStr"/>
+      <c r="AJ293" t="inlineStr"/>
+      <c r="AK293" t="inlineStr"/>
+      <c r="AL293" t="inlineStr"/>
+      <c r="AM293" t="inlineStr"/>
+      <c r="AN293" t="inlineStr"/>
+      <c r="AO293" t="inlineStr"/>
+      <c r="AP293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>vocab:1274</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>sampling container material</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
+      <c r="S294" t="inlineStr"/>
+      <c r="T294" t="inlineStr"/>
+      <c r="U294" t="inlineStr"/>
+      <c r="V294" t="inlineStr"/>
+      <c r="W294" t="inlineStr"/>
+      <c r="X294" t="inlineStr"/>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr"/>
+      <c r="AA294" t="inlineStr"/>
+      <c r="AB294" t="inlineStr"/>
+      <c r="AC294" t="inlineStr"/>
+      <c r="AD294" t="inlineStr"/>
+      <c r="AE294" t="inlineStr"/>
+      <c r="AF294" t="inlineStr"/>
+      <c r="AG294" t="inlineStr"/>
+      <c r="AH294" t="inlineStr"/>
+      <c r="AI294" t="inlineStr"/>
+      <c r="AJ294" t="inlineStr"/>
+      <c r="AK294" t="inlineStr"/>
+      <c r="AL294" t="inlineStr"/>
+      <c r="AM294" t="inlineStr"/>
+      <c r="AN294" t="inlineStr"/>
+      <c r="AO294" t="inlineStr"/>
+      <c r="AP294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>vocab:1275</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr"/>
+      <c r="D295" t="inlineStr"/>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>vocab:1274</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="inlineStr"/>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
+      <c r="R295" t="inlineStr"/>
+      <c r="S295" t="inlineStr"/>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
+      <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr"/>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z295" t="inlineStr"/>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="inlineStr"/>
+      <c r="AC295" t="inlineStr"/>
+      <c r="AD295" t="inlineStr"/>
+      <c r="AE295" t="inlineStr"/>
+      <c r="AF295" t="inlineStr"/>
+      <c r="AG295" t="inlineStr"/>
+      <c r="AH295" t="inlineStr"/>
+      <c r="AI295" t="inlineStr"/>
+      <c r="AJ295" t="inlineStr"/>
+      <c r="AK295" t="inlineStr"/>
+      <c r="AL295" t="inlineStr"/>
+      <c r="AM295" t="inlineStr"/>
+      <c r="AN295" t="inlineStr"/>
+      <c r="AO295" t="inlineStr"/>
+      <c r="AP295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>vocab:1276</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>glass</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr"/>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>vocab:1274</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr"/>
+      <c r="S296" t="inlineStr"/>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
+      <c r="V296" t="inlineStr"/>
+      <c r="W296" t="inlineStr"/>
+      <c r="X296" t="inlineStr"/>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr"/>
+      <c r="AA296" t="inlineStr"/>
+      <c r="AB296" t="inlineStr"/>
+      <c r="AC296" t="inlineStr"/>
+      <c r="AD296" t="inlineStr"/>
+      <c r="AE296" t="inlineStr"/>
+      <c r="AF296" t="inlineStr"/>
+      <c r="AG296" t="inlineStr"/>
+      <c r="AH296" t="inlineStr"/>
+      <c r="AI296" t="inlineStr"/>
+      <c r="AJ296" t="inlineStr"/>
+      <c r="AK296" t="inlineStr"/>
+      <c r="AL296" t="inlineStr"/>
+      <c r="AM296" t="inlineStr"/>
+      <c r="AN296" t="inlineStr"/>
+      <c r="AO296" t="inlineStr"/>
+      <c r="AP296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>vocab:1277</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>PET</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr"/>
+      <c r="D297" t="inlineStr"/>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>vocab:1274</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="inlineStr"/>
+      <c r="O297" t="inlineStr"/>
+      <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr"/>
+      <c r="R297" t="inlineStr"/>
+      <c r="S297" t="inlineStr"/>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr"/>
+      <c r="V297" t="inlineStr"/>
+      <c r="W297" t="inlineStr"/>
+      <c r="X297" t="inlineStr"/>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr"/>
+      <c r="AA297" t="inlineStr"/>
+      <c r="AB297" t="inlineStr"/>
+      <c r="AC297" t="inlineStr"/>
+      <c r="AD297" t="inlineStr"/>
+      <c r="AE297" t="inlineStr"/>
+      <c r="AF297" t="inlineStr"/>
+      <c r="AG297" t="inlineStr"/>
+      <c r="AH297" t="inlineStr"/>
+      <c r="AI297" t="inlineStr"/>
+      <c r="AJ297" t="inlineStr"/>
+      <c r="AK297" t="inlineStr"/>
+      <c r="AL297" t="inlineStr"/>
+      <c r="AM297" t="inlineStr"/>
+      <c r="AN297" t="inlineStr"/>
+      <c r="AO297" t="inlineStr"/>
+      <c r="AP297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>quality assurance/qualtiy control method</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr"/>
+      <c r="D298" t="inlineStr"/>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="inlineStr"/>
+      <c r="O298" t="inlineStr"/>
+      <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr"/>
+      <c r="R298" t="inlineStr"/>
+      <c r="S298" t="inlineStr"/>
+      <c r="T298" t="inlineStr"/>
+      <c r="U298" t="inlineStr"/>
+      <c r="V298" t="inlineStr"/>
+      <c r="W298" t="inlineStr"/>
+      <c r="X298" t="inlineStr"/>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr"/>
+      <c r="AA298" t="inlineStr"/>
+      <c r="AB298" t="inlineStr"/>
+      <c r="AC298" t="inlineStr"/>
+      <c r="AD298" t="inlineStr"/>
+      <c r="AE298" t="inlineStr"/>
+      <c r="AF298" t="inlineStr"/>
+      <c r="AG298" t="inlineStr"/>
+      <c r="AH298" t="inlineStr"/>
+      <c r="AI298" t="inlineStr"/>
+      <c r="AJ298" t="inlineStr"/>
+      <c r="AK298" t="inlineStr"/>
+      <c r="AL298" t="inlineStr"/>
+      <c r="AM298" t="inlineStr"/>
+      <c r="AN298" t="inlineStr"/>
+      <c r="AO298" t="inlineStr"/>
+      <c r="AP298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>vocab:1279</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>standard operating procedure</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr"/>
+      <c r="D299" t="inlineStr"/>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr"/>
+      <c r="O299" t="inlineStr"/>
+      <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr"/>
+      <c r="R299" t="inlineStr"/>
+      <c r="S299" t="inlineStr"/>
+      <c r="T299" t="inlineStr"/>
+      <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr"/>
+      <c r="W299" t="inlineStr"/>
+      <c r="X299" t="inlineStr"/>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr"/>
+      <c r="AA299" t="inlineStr"/>
+      <c r="AB299" t="inlineStr"/>
+      <c r="AC299" t="inlineStr"/>
+      <c r="AD299" t="inlineStr"/>
+      <c r="AE299" t="inlineStr"/>
+      <c r="AF299" t="inlineStr"/>
+      <c r="AG299" t="inlineStr"/>
+      <c r="AH299" t="inlineStr"/>
+      <c r="AI299" t="inlineStr"/>
+      <c r="AJ299" t="inlineStr"/>
+      <c r="AK299" t="inlineStr"/>
+      <c r="AL299" t="inlineStr"/>
+      <c r="AM299" t="inlineStr"/>
+      <c r="AN299" t="inlineStr"/>
+      <c r="AO299" t="inlineStr"/>
+      <c r="AP299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>vocab:1280</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>trained fieldworkers</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr"/>
+      <c r="D300" t="inlineStr"/>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="inlineStr"/>
+      <c r="O300" t="inlineStr"/>
+      <c r="P300" t="inlineStr"/>
+      <c r="Q300" t="inlineStr"/>
+      <c r="R300" t="inlineStr"/>
+      <c r="S300" t="inlineStr"/>
+      <c r="T300" t="inlineStr"/>
+      <c r="U300" t="inlineStr"/>
+      <c r="V300" t="inlineStr"/>
+      <c r="W300" t="inlineStr"/>
+      <c r="X300" t="inlineStr"/>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr"/>
+      <c r="AA300" t="inlineStr"/>
+      <c r="AB300" t="inlineStr"/>
+      <c r="AC300" t="inlineStr"/>
+      <c r="AD300" t="inlineStr"/>
+      <c r="AE300" t="inlineStr"/>
+      <c r="AF300" t="inlineStr"/>
+      <c r="AG300" t="inlineStr"/>
+      <c r="AH300" t="inlineStr"/>
+      <c r="AI300" t="inlineStr"/>
+      <c r="AJ300" t="inlineStr"/>
+      <c r="AK300" t="inlineStr"/>
+      <c r="AL300" t="inlineStr"/>
+      <c r="AM300" t="inlineStr"/>
+      <c r="AN300" t="inlineStr"/>
+      <c r="AO300" t="inlineStr"/>
+      <c r="AP300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>vocab:1281</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>control of background contamination in the sampling material</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr"/>
+      <c r="D301" t="inlineStr"/>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="inlineStr"/>
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr"/>
+      <c r="S301" t="inlineStr"/>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr"/>
+      <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr"/>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr"/>
+      <c r="AA301" t="inlineStr"/>
+      <c r="AB301" t="inlineStr"/>
+      <c r="AC301" t="inlineStr"/>
+      <c r="AD301" t="inlineStr"/>
+      <c r="AE301" t="inlineStr"/>
+      <c r="AF301" t="inlineStr"/>
+      <c r="AG301" t="inlineStr"/>
+      <c r="AH301" t="inlineStr"/>
+      <c r="AI301" t="inlineStr"/>
+      <c r="AJ301" t="inlineStr"/>
+      <c r="AK301" t="inlineStr"/>
+      <c r="AL301" t="inlineStr"/>
+      <c r="AM301" t="inlineStr"/>
+      <c r="AN301" t="inlineStr"/>
+      <c r="AO301" t="inlineStr"/>
+      <c r="AP301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>vocab:1282</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>controlf of the transprot conditions</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr"/>
+      <c r="D302" t="inlineStr"/>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="inlineStr"/>
+      <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="inlineStr"/>
+      <c r="S302" t="inlineStr"/>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
+      <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr"/>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr"/>
+      <c r="AA302" t="inlineStr"/>
+      <c r="AB302" t="inlineStr"/>
+      <c r="AC302" t="inlineStr"/>
+      <c r="AD302" t="inlineStr"/>
+      <c r="AE302" t="inlineStr"/>
+      <c r="AF302" t="inlineStr"/>
+      <c r="AG302" t="inlineStr"/>
+      <c r="AH302" t="inlineStr"/>
+      <c r="AI302" t="inlineStr"/>
+      <c r="AJ302" t="inlineStr"/>
+      <c r="AK302" t="inlineStr"/>
+      <c r="AL302" t="inlineStr"/>
+      <c r="AM302" t="inlineStr"/>
+      <c r="AN302" t="inlineStr"/>
+      <c r="AO302" t="inlineStr"/>
+      <c r="AP302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>vocab:1283</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>control of background contamination in the conservation material</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr"/>
+      <c r="D303" t="inlineStr"/>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="inlineStr"/>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
+      <c r="S303" t="inlineStr"/>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
+      <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr"/>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z303" t="inlineStr"/>
+      <c r="AA303" t="inlineStr"/>
+      <c r="AB303" t="inlineStr"/>
+      <c r="AC303" t="inlineStr"/>
+      <c r="AD303" t="inlineStr"/>
+      <c r="AE303" t="inlineStr"/>
+      <c r="AF303" t="inlineStr"/>
+      <c r="AG303" t="inlineStr"/>
+      <c r="AH303" t="inlineStr"/>
+      <c r="AI303" t="inlineStr"/>
+      <c r="AJ303" t="inlineStr"/>
+      <c r="AK303" t="inlineStr"/>
+      <c r="AL303" t="inlineStr"/>
+      <c r="AM303" t="inlineStr"/>
+      <c r="AN303" t="inlineStr"/>
+      <c r="AO303" t="inlineStr"/>
+      <c r="AP303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>vocab:1284</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>identifciation/traceability of the samples</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr"/>
+      <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr"/>
+      <c r="R304" t="inlineStr"/>
+      <c r="S304" t="inlineStr"/>
+      <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
+      <c r="V304" t="inlineStr"/>
+      <c r="W304" t="inlineStr"/>
+      <c r="X304" t="inlineStr"/>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z304" t="inlineStr"/>
+      <c r="AA304" t="inlineStr"/>
+      <c r="AB304" t="inlineStr"/>
+      <c r="AC304" t="inlineStr"/>
+      <c r="AD304" t="inlineStr"/>
+      <c r="AE304" t="inlineStr"/>
+      <c r="AF304" t="inlineStr"/>
+      <c r="AG304" t="inlineStr"/>
+      <c r="AH304" t="inlineStr"/>
+      <c r="AI304" t="inlineStr"/>
+      <c r="AJ304" t="inlineStr"/>
+      <c r="AK304" t="inlineStr"/>
+      <c r="AL304" t="inlineStr"/>
+      <c r="AM304" t="inlineStr"/>
+      <c r="AN304" t="inlineStr"/>
+      <c r="AO304" t="inlineStr"/>
+      <c r="AP304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>vocab:1285</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>criteria for acceptation/acceptation of the samples</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
+      <c r="S305" t="inlineStr"/>
+      <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
+      <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr"/>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr"/>
+      <c r="AA305" t="inlineStr"/>
+      <c r="AB305" t="inlineStr"/>
+      <c r="AC305" t="inlineStr"/>
+      <c r="AD305" t="inlineStr"/>
+      <c r="AE305" t="inlineStr"/>
+      <c r="AF305" t="inlineStr"/>
+      <c r="AG305" t="inlineStr"/>
+      <c r="AH305" t="inlineStr"/>
+      <c r="AI305" t="inlineStr"/>
+      <c r="AJ305" t="inlineStr"/>
+      <c r="AK305" t="inlineStr"/>
+      <c r="AL305" t="inlineStr"/>
+      <c r="AM305" t="inlineStr"/>
+      <c r="AN305" t="inlineStr"/>
+      <c r="AO305" t="inlineStr"/>
+      <c r="AP305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>vocab:1286</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>collection of field blanks</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr"/>
+      <c r="D306" t="inlineStr"/>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr"/>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
+      <c r="R306" t="inlineStr"/>
+      <c r="S306" t="inlineStr"/>
+      <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
+      <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr"/>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr"/>
+      <c r="AA306" t="inlineStr"/>
+      <c r="AB306" t="inlineStr"/>
+      <c r="AC306" t="inlineStr"/>
+      <c r="AD306" t="inlineStr"/>
+      <c r="AE306" t="inlineStr"/>
+      <c r="AF306" t="inlineStr"/>
+      <c r="AG306" t="inlineStr"/>
+      <c r="AH306" t="inlineStr"/>
+      <c r="AI306" t="inlineStr"/>
+      <c r="AJ306" t="inlineStr"/>
+      <c r="AK306" t="inlineStr"/>
+      <c r="AL306" t="inlineStr"/>
+      <c r="AM306" t="inlineStr"/>
+      <c r="AN306" t="inlineStr"/>
+      <c r="AO306" t="inlineStr"/>
+      <c r="AP306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>vocab:1287</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>settings the conditions for sample storage</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr"/>
+      <c r="D307" t="inlineStr"/>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>vocab:1278</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr"/>
+      <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
+      <c r="S307" t="inlineStr"/>
+      <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
+      <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr"/>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr"/>
+      <c r="AA307" t="inlineStr"/>
+      <c r="AB307" t="inlineStr"/>
+      <c r="AC307" t="inlineStr"/>
+      <c r="AD307" t="inlineStr"/>
+      <c r="AE307" t="inlineStr"/>
+      <c r="AF307" t="inlineStr"/>
+      <c r="AG307" t="inlineStr"/>
+      <c r="AH307" t="inlineStr"/>
+      <c r="AI307" t="inlineStr"/>
+      <c r="AJ307" t="inlineStr"/>
+      <c r="AK307" t="inlineStr"/>
+      <c r="AL307" t="inlineStr"/>
+      <c r="AM307" t="inlineStr"/>
+      <c r="AN307" t="inlineStr"/>
+      <c r="AO307" t="inlineStr"/>
+      <c r="AP307" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -17712,7 +17712,7 @@
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t>vocab:1263</t>
+          <t>vocab:1267</t>
         </is>
       </c>
       <c r="H288" t="inlineStr"/>
@@ -17772,7 +17772,7 @@
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr">
         <is>
-          <t>vocab:1263</t>
+          <t>vocab:1267</t>
         </is>
       </c>
       <c r="H289" t="inlineStr"/>
@@ -17832,7 +17832,7 @@
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
-          <t>vocab:1263</t>
+          <t>vocab:1267</t>
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
@@ -17892,7 +17892,7 @@
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr">
         <is>
-          <t>vocab:1263</t>
+          <t>vocab:1267</t>
         </is>
       </c>
       <c r="H291" t="inlineStr"/>
@@ -17952,7 +17952,7 @@
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr">
         <is>
-          <t>vocab:1263</t>
+          <t>vocab:1267</t>
         </is>
       </c>
       <c r="H292" t="inlineStr"/>
@@ -18012,7 +18012,7 @@
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
-          <t>vocab:1263</t>
+          <t>vocab:1267</t>
         </is>
       </c>
       <c r="H293" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP307"/>
+  <dimension ref="A1:AS357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,9 @@
       <c r="AN1" t="inlineStr"/>
       <c r="AO1" t="inlineStr"/>
       <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
+      <c r="AR1" t="inlineStr"/>
+      <c r="AS1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +535,9 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,6 +598,9 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -652,6 +661,9 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -712,6 +724,9 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -772,6 +787,9 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -832,6 +850,9 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -892,6 +913,9 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -952,6 +976,9 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1012,6 +1039,9 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1074,6 +1104,9 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1134,6 +1167,9 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1194,6 +1230,9 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1254,6 +1293,9 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1314,6 +1356,9 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1374,6 +1419,9 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1434,6 +1482,9 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1482,6 +1533,9 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1526,6 +1580,9 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1586,6 +1643,9 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1642,6 +1702,9 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1698,6 +1761,9 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1750,6 +1816,9 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1802,6 +1871,9 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1854,6 +1926,9 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1906,6 +1981,9 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1958,6 +2036,9 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2010,6 +2091,9 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2066,6 +2150,9 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2118,6 +2205,9 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2174,6 +2264,9 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2226,6 +2319,9 @@
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2278,6 +2374,9 @@
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2334,6 +2433,9 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2394,6 +2496,9 @@
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2450,6 +2555,9 @@
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2502,6 +2610,9 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2558,6 +2669,9 @@
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2610,6 +2724,9 @@
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2666,6 +2783,9 @@
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2722,6 +2842,9 @@
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2778,6 +2901,9 @@
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2830,6 +2956,9 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+      <c r="AR43" t="inlineStr"/>
+      <c r="AS43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2878,6 +3007,9 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+      <c r="AR44" t="inlineStr"/>
+      <c r="AS44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -2922,6 +3054,9 @@
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+      <c r="AR45" t="inlineStr"/>
+      <c r="AS45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3074,6 +3209,9 @@
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+      <c r="AR46" t="inlineStr"/>
+      <c r="AS46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3134,6 +3272,9 @@
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+      <c r="AR47" t="inlineStr"/>
+      <c r="AS47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3194,6 +3335,9 @@
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+      <c r="AR48" t="inlineStr"/>
+      <c r="AS48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3254,6 +3398,9 @@
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+      <c r="AR49" t="inlineStr"/>
+      <c r="AS49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3272,7 +3419,7 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057,vocab:1252,vocab:1244,vocab:1263,vocab:1259</t>
+          <t>vocab:1000,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057,vocab:1252,vocab:1244,vocab:1263,vocab:1259,vocab:1278,vocab:1172,vocab:1291,vocab:1299, vocab:1304,vocab:1319,vocab:1312,vocab:1333</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3298,7 +3445,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr"/>
@@ -3318,6 +3465,9 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+      <c r="AR50" t="inlineStr"/>
+      <c r="AS50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3374,6 +3524,9 @@
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3434,6 +3587,9 @@
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3494,6 +3650,9 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+      <c r="AR53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3554,6 +3713,9 @@
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
+      <c r="AS54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3614,6 +3776,9 @@
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3674,6 +3839,9 @@
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+      <c r="AR56" t="inlineStr"/>
+      <c r="AS56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3734,6 +3902,9 @@
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+      <c r="AR57" t="inlineStr"/>
+      <c r="AS57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3794,6 +3965,9 @@
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+      <c r="AR58" t="inlineStr"/>
+      <c r="AS58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3854,6 +4028,9 @@
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
+      <c r="AR59" t="inlineStr"/>
+      <c r="AS59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3914,6 +4091,9 @@
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
+      <c r="AR60" t="inlineStr"/>
+      <c r="AS60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3974,6 +4154,9 @@
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
+      <c r="AR61" t="inlineStr"/>
+      <c r="AS61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4034,6 +4217,9 @@
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
+      <c r="AR62" t="inlineStr"/>
+      <c r="AS62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4094,6 +4280,9 @@
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
+      <c r="AR63" t="inlineStr"/>
+      <c r="AS63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4158,6 +4347,9 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
+      <c r="AR64" t="inlineStr"/>
+      <c r="AS64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4218,6 +4410,9 @@
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
+      <c r="AR65" t="inlineStr"/>
+      <c r="AS65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4282,6 +4477,9 @@
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
+      <c r="AR66" t="inlineStr"/>
+      <c r="AS66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4338,6 +4536,9 @@
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
+      <c r="AR67" t="inlineStr"/>
+      <c r="AS67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4402,6 +4603,9 @@
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
+      <c r="AR68" t="inlineStr"/>
+      <c r="AS68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4466,6 +4670,9 @@
       <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
+      <c r="AR69" t="inlineStr"/>
+      <c r="AS69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4530,6 +4737,9 @@
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
+      <c r="AR70" t="inlineStr"/>
+      <c r="AS70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4590,6 +4800,9 @@
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
+      <c r="AR71" t="inlineStr"/>
+      <c r="AS71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4650,6 +4863,9 @@
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
+      <c r="AR72" t="inlineStr"/>
+      <c r="AS72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4710,6 +4926,9 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
+      <c r="AR73" t="inlineStr"/>
+      <c r="AS73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4770,6 +4989,9 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
+      <c r="AR74" t="inlineStr"/>
+      <c r="AS74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4830,6 +5052,9 @@
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
+      <c r="AR75" t="inlineStr"/>
+      <c r="AS75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4890,6 +5115,9 @@
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
+      <c r="AQ76" t="inlineStr"/>
+      <c r="AR76" t="inlineStr"/>
+      <c r="AS76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4946,6 +5174,9 @@
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
+      <c r="AQ77" t="inlineStr"/>
+      <c r="AR77" t="inlineStr"/>
+      <c r="AS77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5006,6 +5237,9 @@
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
+      <c r="AQ78" t="inlineStr"/>
+      <c r="AR78" t="inlineStr"/>
+      <c r="AS78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5070,6 +5304,9 @@
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
+      <c r="AR79" t="inlineStr"/>
+      <c r="AS79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5134,6 +5371,9 @@
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
+      <c r="AR80" t="inlineStr"/>
+      <c r="AS80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5190,6 +5430,9 @@
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
+      <c r="AQ81" t="inlineStr"/>
+      <c r="AR81" t="inlineStr"/>
+      <c r="AS81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5250,6 +5493,9 @@
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
+      <c r="AQ82" t="inlineStr"/>
+      <c r="AR82" t="inlineStr"/>
+      <c r="AS82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5310,6 +5556,9 @@
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
+      <c r="AR83" t="inlineStr"/>
+      <c r="AS83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5370,6 +5619,9 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
+      <c r="AR84" t="inlineStr"/>
+      <c r="AS84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5430,6 +5682,9 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
+      <c r="AR85" t="inlineStr"/>
+      <c r="AS85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5490,6 +5745,9 @@
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
+      <c r="AR86" t="inlineStr"/>
+      <c r="AS86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5554,6 +5812,9 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
+      <c r="AR87" t="inlineStr"/>
+      <c r="AS87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5618,6 +5879,9 @@
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
+      <c r="AR88" t="inlineStr"/>
+      <c r="AS88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5678,6 +5942,9 @@
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
+      <c r="AR89" t="inlineStr"/>
+      <c r="AS89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5742,6 +6009,9 @@
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
+      <c r="AR90" t="inlineStr"/>
+      <c r="AS90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5806,6 +6076,9 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
+      <c r="AR91" t="inlineStr"/>
+      <c r="AS91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5870,6 +6143,9 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
+      <c r="AR92" t="inlineStr"/>
+      <c r="AS92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5934,6 +6210,9 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
+      <c r="AR93" t="inlineStr"/>
+      <c r="AS93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5994,6 +6273,9 @@
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
+      <c r="AR94" t="inlineStr"/>
+      <c r="AS94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6058,6 +6340,9 @@
       <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
+      <c r="AR95" t="inlineStr"/>
+      <c r="AS95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6122,6 +6407,9 @@
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
+      <c r="AR96" t="inlineStr"/>
+      <c r="AS96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6186,6 +6474,9 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
+      <c r="AR97" t="inlineStr"/>
+      <c r="AS97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6250,6 +6541,9 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr"/>
+      <c r="AQ98" t="inlineStr"/>
+      <c r="AR98" t="inlineStr"/>
+      <c r="AS98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6310,6 +6604,9 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr"/>
+      <c r="AQ99" t="inlineStr"/>
+      <c r="AR99" t="inlineStr"/>
+      <c r="AS99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6370,6 +6667,9 @@
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr"/>
+      <c r="AQ100" t="inlineStr"/>
+      <c r="AR100" t="inlineStr"/>
+      <c r="AS100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6434,6 +6734,9 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr"/>
+      <c r="AQ101" t="inlineStr"/>
+      <c r="AR101" t="inlineStr"/>
+      <c r="AS101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6498,6 +6801,9 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
+      <c r="AQ102" t="inlineStr"/>
+      <c r="AR102" t="inlineStr"/>
+      <c r="AS102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6562,6 +6868,9 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
+      <c r="AQ103" t="inlineStr"/>
+      <c r="AR103" t="inlineStr"/>
+      <c r="AS103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6622,6 +6931,9 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
+      <c r="AQ104" t="inlineStr"/>
+      <c r="AR104" t="inlineStr"/>
+      <c r="AS104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6682,6 +6994,9 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="inlineStr"/>
+      <c r="AR105" t="inlineStr"/>
+      <c r="AS105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6746,6 +7061,9 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr"/>
+      <c r="AQ106" t="inlineStr"/>
+      <c r="AR106" t="inlineStr"/>
+      <c r="AS106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6810,6 +7128,9 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
+      <c r="AQ107" t="inlineStr"/>
+      <c r="AR107" t="inlineStr"/>
+      <c r="AS107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6870,6 +7191,9 @@
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr"/>
+      <c r="AQ108" t="inlineStr"/>
+      <c r="AR108" t="inlineStr"/>
+      <c r="AS108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6930,6 +7254,9 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr"/>
+      <c r="AQ109" t="inlineStr"/>
+      <c r="AR109" t="inlineStr"/>
+      <c r="AS109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6994,6 +7321,9 @@
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr"/>
+      <c r="AQ110" t="inlineStr"/>
+      <c r="AR110" t="inlineStr"/>
+      <c r="AS110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7058,6 +7388,9 @@
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr"/>
+      <c r="AQ111" t="inlineStr"/>
+      <c r="AR111" t="inlineStr"/>
+      <c r="AS111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7118,6 +7451,9 @@
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr"/>
+      <c r="AQ112" t="inlineStr"/>
+      <c r="AR112" t="inlineStr"/>
+      <c r="AS112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7178,6 +7514,9 @@
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr"/>
+      <c r="AQ113" t="inlineStr"/>
+      <c r="AR113" t="inlineStr"/>
+      <c r="AS113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7238,6 +7577,9 @@
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr"/>
+      <c r="AQ114" t="inlineStr"/>
+      <c r="AR114" t="inlineStr"/>
+      <c r="AS114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7298,6 +7640,9 @@
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr"/>
+      <c r="AQ115" t="inlineStr"/>
+      <c r="AR115" t="inlineStr"/>
+      <c r="AS115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7358,6 +7703,9 @@
       <c r="AN116" t="inlineStr"/>
       <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr"/>
+      <c r="AQ116" t="inlineStr"/>
+      <c r="AR116" t="inlineStr"/>
+      <c r="AS116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7410,6 +7758,9 @@
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr"/>
+      <c r="AQ117" t="inlineStr"/>
+      <c r="AR117" t="inlineStr"/>
+      <c r="AS117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7448,7 +7799,11 @@
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
       <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
@@ -7466,6 +7821,9 @@
       <c r="AN118" t="inlineStr"/>
       <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr"/>
+      <c r="AQ118" t="inlineStr"/>
+      <c r="AR118" t="inlineStr"/>
+      <c r="AS118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7504,7 +7862,11 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
@@ -7522,6 +7884,9 @@
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr"/>
+      <c r="AQ119" t="inlineStr"/>
+      <c r="AR119" t="inlineStr"/>
+      <c r="AS119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7560,7 +7925,11 @@
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
       <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr"/>
       <c r="AB120" t="inlineStr"/>
@@ -7578,6 +7947,9 @@
       <c r="AN120" t="inlineStr"/>
       <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr"/>
+      <c r="AQ120" t="inlineStr"/>
+      <c r="AR120" t="inlineStr"/>
+      <c r="AS120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7616,7 +7988,11 @@
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
       <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr"/>
       <c r="AB121" t="inlineStr"/>
@@ -7634,6 +8010,9 @@
       <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr"/>
+      <c r="AQ121" t="inlineStr"/>
+      <c r="AR121" t="inlineStr"/>
+      <c r="AS121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7672,7 +8051,11 @@
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
       <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
       <c r="AB122" t="inlineStr"/>
@@ -7690,6 +8073,9 @@
       <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr"/>
+      <c r="AQ122" t="inlineStr"/>
+      <c r="AR122" t="inlineStr"/>
+      <c r="AS122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7728,7 +8114,11 @@
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="inlineStr"/>
       <c r="AB123" t="inlineStr"/>
@@ -7746,6 +8136,9 @@
       <c r="AN123" t="inlineStr"/>
       <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr"/>
+      <c r="AQ123" t="inlineStr"/>
+      <c r="AR123" t="inlineStr"/>
+      <c r="AS123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7755,7 +8148,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>whole air matrix</t>
+          <t>whole air</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -7802,6 +8195,9 @@
       <c r="AN124" t="inlineStr"/>
       <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr"/>
+      <c r="AQ124" t="inlineStr"/>
+      <c r="AR124" t="inlineStr"/>
+      <c r="AS124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7811,7 +8207,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>gas phase matrix</t>
+          <t>gas phase</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -7858,6 +8254,9 @@
       <c r="AN125" t="inlineStr"/>
       <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr"/>
+      <c r="AQ125" t="inlineStr"/>
+      <c r="AR125" t="inlineStr"/>
+      <c r="AS125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7867,7 +8266,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TSP matrix</t>
+          <t>TSP</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -7914,6 +8313,9 @@
       <c r="AN126" t="inlineStr"/>
       <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr"/>
+      <c r="AQ126" t="inlineStr"/>
+      <c r="AR126" t="inlineStr"/>
+      <c r="AS126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7923,7 +8325,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PM 10 matrix</t>
+          <t>PM 10</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -7970,6 +8372,9 @@
       <c r="AN127" t="inlineStr"/>
       <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr"/>
+      <c r="AQ127" t="inlineStr"/>
+      <c r="AR127" t="inlineStr"/>
+      <c r="AS127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7979,7 +8384,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PM 2.5 matrix</t>
+          <t>PM 2.5</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -8026,6 +8431,9 @@
       <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr"/>
+      <c r="AQ128" t="inlineStr"/>
+      <c r="AR128" t="inlineStr"/>
+      <c r="AS128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8035,7 +8443,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PM 5 matrix</t>
+          <t>PM 5</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -8082,6 +8490,9 @@
       <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr"/>
+      <c r="AQ129" t="inlineStr"/>
+      <c r="AR129" t="inlineStr"/>
+      <c r="AS129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8091,7 +8502,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>surface</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -8138,6 +8549,9 @@
       <c r="AN130" t="inlineStr"/>
       <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr"/>
+      <c r="AQ130" t="inlineStr"/>
+      <c r="AR130" t="inlineStr"/>
+      <c r="AS130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8147,7 +8561,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>sewage sludge matrix</t>
+          <t>sewage sludge</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -8194,6 +8608,9 @@
       <c r="AN131" t="inlineStr"/>
       <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr"/>
+      <c r="AQ131" t="inlineStr"/>
+      <c r="AR131" t="inlineStr"/>
+      <c r="AS131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8203,7 +8620,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>stratified matrix</t>
+          <t>stratified</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -8250,6 +8667,9 @@
       <c r="AN132" t="inlineStr"/>
       <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr"/>
+      <c r="AQ132" t="inlineStr"/>
+      <c r="AR132" t="inlineStr"/>
+      <c r="AS132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8259,7 +8679,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>surface</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -8306,6 +8726,9 @@
       <c r="AN133" t="inlineStr"/>
       <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr"/>
+      <c r="AQ133" t="inlineStr"/>
+      <c r="AR133" t="inlineStr"/>
+      <c r="AS133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8315,7 +8738,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>topsoil matrix</t>
+          <t>topsoil</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -8362,6 +8785,9 @@
       <c r="AN134" t="inlineStr"/>
       <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr"/>
+      <c r="AQ134" t="inlineStr"/>
+      <c r="AR134" t="inlineStr"/>
+      <c r="AS134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8371,7 +8797,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>subsoil A matrix</t>
+          <t>subsoil A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -8418,6 +8844,9 @@
       <c r="AN135" t="inlineStr"/>
       <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr"/>
+      <c r="AQ135" t="inlineStr"/>
+      <c r="AR135" t="inlineStr"/>
+      <c r="AS135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8427,7 +8856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>subsoil B matrix</t>
+          <t>subsoil B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -8474,6 +8903,9 @@
       <c r="AN136" t="inlineStr"/>
       <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="inlineStr"/>
+      <c r="AQ136" t="inlineStr"/>
+      <c r="AR136" t="inlineStr"/>
+      <c r="AS136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8483,7 +8915,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>horizon A matrix</t>
+          <t>horizon A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -8530,6 +8962,9 @@
       <c r="AN137" t="inlineStr"/>
       <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr"/>
+      <c r="AQ137" t="inlineStr"/>
+      <c r="AR137" t="inlineStr"/>
+      <c r="AS137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8539,7 +8974,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>horizon B matrix</t>
+          <t>horizon B</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -8586,6 +9021,9 @@
       <c r="AN138" t="inlineStr"/>
       <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="inlineStr"/>
+      <c r="AQ138" t="inlineStr"/>
+      <c r="AR138" t="inlineStr"/>
+      <c r="AS138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8595,7 +9033,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>horizon C matrix</t>
+          <t>horizon C</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -8642,6 +9080,9 @@
       <c r="AN139" t="inlineStr"/>
       <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr"/>
+      <c r="AQ139" t="inlineStr"/>
+      <c r="AR139" t="inlineStr"/>
+      <c r="AS139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8651,7 +9092,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>horizon E matrix</t>
+          <t>horizon E</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -8698,6 +9139,9 @@
       <c r="AN140" t="inlineStr"/>
       <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr"/>
+      <c r="AQ140" t="inlineStr"/>
+      <c r="AR140" t="inlineStr"/>
+      <c r="AS140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8707,7 +9151,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>horizon G matrix</t>
+          <t>horizon G</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -8754,6 +9198,9 @@
       <c r="AN141" t="inlineStr"/>
       <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr"/>
+      <c r="AQ141" t="inlineStr"/>
+      <c r="AR141" t="inlineStr"/>
+      <c r="AS141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8763,7 +9210,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>horizon M matrix</t>
+          <t>horizon M</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -8810,6 +9257,9 @@
       <c r="AN142" t="inlineStr"/>
       <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr"/>
+      <c r="AQ142" t="inlineStr"/>
+      <c r="AR142" t="inlineStr"/>
+      <c r="AS142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8819,7 +9269,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>horizon O matrix</t>
+          <t>horizon O</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -8866,6 +9316,9 @@
       <c r="AN143" t="inlineStr"/>
       <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr"/>
+      <c r="AQ143" t="inlineStr"/>
+      <c r="AR143" t="inlineStr"/>
+      <c r="AS143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8875,7 +9328,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>coastal matrix</t>
+          <t>coastal</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -8922,6 +9375,9 @@
       <c r="AN144" t="inlineStr"/>
       <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr"/>
+      <c r="AQ144" t="inlineStr"/>
+      <c r="AR144" t="inlineStr"/>
+      <c r="AS144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8931,7 +9387,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>brackish matrix</t>
+          <t>brackish</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -8978,6 +9434,9 @@
       <c r="AN145" t="inlineStr"/>
       <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr"/>
+      <c r="AQ145" t="inlineStr"/>
+      <c r="AR145" t="inlineStr"/>
+      <c r="AS145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8987,7 +9446,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ocean matrix</t>
+          <t>ocean</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -9034,6 +9493,9 @@
       <c r="AN146" t="inlineStr"/>
       <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr"/>
+      <c r="AQ146" t="inlineStr"/>
+      <c r="AR146" t="inlineStr"/>
+      <c r="AS146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9043,7 +9505,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>surface freshwater matrix</t>
+          <t>surface freshwater</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -9090,6 +9552,9 @@
       <c r="AN147" t="inlineStr"/>
       <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr"/>
+      <c r="AQ147" t="inlineStr"/>
+      <c r="AR147" t="inlineStr"/>
+      <c r="AS147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9099,7 +9564,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>surface freshwater - reservoir matrix</t>
+          <t>surface freshwater - reservoir</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -9146,6 +9611,9 @@
       <c r="AN148" t="inlineStr"/>
       <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr"/>
+      <c r="AQ148" t="inlineStr"/>
+      <c r="AR148" t="inlineStr"/>
+      <c r="AS148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9155,7 +9623,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>surface freshwater - river matrix</t>
+          <t>surface freshwater - river</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -9202,6 +9670,9 @@
       <c r="AN149" t="inlineStr"/>
       <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr"/>
+      <c r="AQ149" t="inlineStr"/>
+      <c r="AR149" t="inlineStr"/>
+      <c r="AS149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9211,7 +9682,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ground water matrix</t>
+          <t>ground water</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -9258,6 +9729,9 @@
       <c r="AN150" t="inlineStr"/>
       <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr"/>
+      <c r="AQ150" t="inlineStr"/>
+      <c r="AR150" t="inlineStr"/>
+      <c r="AS150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9267,7 +9741,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>fish matrix</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -9314,6 +9788,9 @@
       <c r="AN151" t="inlineStr"/>
       <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr"/>
+      <c r="AQ151" t="inlineStr"/>
+      <c r="AR151" t="inlineStr"/>
+      <c r="AS151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9323,7 +9800,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>barley matrix</t>
+          <t>barley</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -9370,6 +9847,9 @@
       <c r="AN152" t="inlineStr"/>
       <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr"/>
+      <c r="AQ152" t="inlineStr"/>
+      <c r="AR152" t="inlineStr"/>
+      <c r="AS152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9379,7 +9859,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>grass matrix</t>
+          <t>grass</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -9426,6 +9906,9 @@
       <c r="AN153" t="inlineStr"/>
       <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr"/>
+      <c r="AQ153" t="inlineStr"/>
+      <c r="AR153" t="inlineStr"/>
+      <c r="AS153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9435,7 +9918,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>hop matrix</t>
+          <t>hop</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -9482,6 +9965,9 @@
       <c r="AN154" t="inlineStr"/>
       <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr"/>
+      <c r="AQ154" t="inlineStr"/>
+      <c r="AR154" t="inlineStr"/>
+      <c r="AS154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9491,7 +9977,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>moss matrix</t>
+          <t>moss</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -9538,6 +10024,9 @@
       <c r="AN155" t="inlineStr"/>
       <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr"/>
+      <c r="AQ155" t="inlineStr"/>
+      <c r="AR155" t="inlineStr"/>
+      <c r="AS155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9547,7 +10036,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>mustard matrix</t>
+          <t>mustard</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -9594,6 +10083,9 @@
       <c r="AN156" t="inlineStr"/>
       <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr"/>
+      <c r="AQ156" t="inlineStr"/>
+      <c r="AR156" t="inlineStr"/>
+      <c r="AS156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9603,7 +10095,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>maize matrix</t>
+          <t>maize</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -9650,6 +10142,9 @@
       <c r="AN157" t="inlineStr"/>
       <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr"/>
+      <c r="AQ157" t="inlineStr"/>
+      <c r="AR157" t="inlineStr"/>
+      <c r="AS157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9659,7 +10154,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>oat matrix</t>
+          <t>oat</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -9706,6 +10201,9 @@
       <c r="AN158" t="inlineStr"/>
       <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr"/>
+      <c r="AQ158" t="inlineStr"/>
+      <c r="AR158" t="inlineStr"/>
+      <c r="AS158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9715,7 +10213,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>peat moss matrix</t>
+          <t>peat moss</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -9762,6 +10260,9 @@
       <c r="AN159" t="inlineStr"/>
       <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="inlineStr"/>
+      <c r="AQ159" t="inlineStr"/>
+      <c r="AR159" t="inlineStr"/>
+      <c r="AS159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9771,7 +10272,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>pine matrix</t>
+          <t>pine</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -9818,6 +10319,9 @@
       <c r="AN160" t="inlineStr"/>
       <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr"/>
+      <c r="AQ160" t="inlineStr"/>
+      <c r="AR160" t="inlineStr"/>
+      <c r="AS160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9827,7 +10331,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>potato matrix</t>
+          <t>potato</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -9874,6 +10378,9 @@
       <c r="AN161" t="inlineStr"/>
       <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr"/>
+      <c r="AQ161" t="inlineStr"/>
+      <c r="AR161" t="inlineStr"/>
+      <c r="AS161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9883,7 +10390,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>rape matrix</t>
+          <t>rape</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -9930,6 +10437,9 @@
       <c r="AN162" t="inlineStr"/>
       <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr"/>
+      <c r="AQ162" t="inlineStr"/>
+      <c r="AR162" t="inlineStr"/>
+      <c r="AS162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9939,7 +10449,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>soya matrix</t>
+          <t>soya</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -9986,6 +10496,9 @@
       <c r="AN163" t="inlineStr"/>
       <c r="AO163" t="inlineStr"/>
       <c r="AP163" t="inlineStr"/>
+      <c r="AQ163" t="inlineStr"/>
+      <c r="AR163" t="inlineStr"/>
+      <c r="AS163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9995,7 +10508,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>sunflover matrix</t>
+          <t>sunflover</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -10042,6 +10555,9 @@
       <c r="AN164" t="inlineStr"/>
       <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr"/>
+      <c r="AQ164" t="inlineStr"/>
+      <c r="AR164" t="inlineStr"/>
+      <c r="AS164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10051,7 +10567,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>spruce matrix</t>
+          <t>spruce</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -10098,6 +10614,9 @@
       <c r="AN165" t="inlineStr"/>
       <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr"/>
+      <c r="AQ165" t="inlineStr"/>
+      <c r="AR165" t="inlineStr"/>
+      <c r="AS165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10107,7 +10626,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>triticale matrix</t>
+          <t>triticale</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -10154,6 +10673,9 @@
       <c r="AN166" t="inlineStr"/>
       <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr"/>
+      <c r="AQ166" t="inlineStr"/>
+      <c r="AR166" t="inlineStr"/>
+      <c r="AS166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10163,7 +10685,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>wheat matrix</t>
+          <t>wheat</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -10210,6 +10732,9 @@
       <c r="AN167" t="inlineStr"/>
       <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr"/>
+      <c r="AQ167" t="inlineStr"/>
+      <c r="AR167" t="inlineStr"/>
+      <c r="AS167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10219,7 +10744,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>dry matrix</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10266,6 +10791,9 @@
       <c r="AN168" t="inlineStr"/>
       <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr"/>
+      <c r="AQ168" t="inlineStr"/>
+      <c r="AR168" t="inlineStr"/>
+      <c r="AS168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10275,7 +10803,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>mixed matrix</t>
+          <t>mixed</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -10322,6 +10850,9 @@
       <c r="AN169" t="inlineStr"/>
       <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr"/>
+      <c r="AQ169" t="inlineStr"/>
+      <c r="AR169" t="inlineStr"/>
+      <c r="AS169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10331,7 +10862,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>wet matrix</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -10378,6 +10909,9 @@
       <c r="AN170" t="inlineStr"/>
       <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr"/>
+      <c r="AQ170" t="inlineStr"/>
+      <c r="AR170" t="inlineStr"/>
+      <c r="AS170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10387,7 +10921,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>blood-whole blood matrix</t>
+          <t xml:space="preserve">blood-whole blood </t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -10424,7 +10958,11 @@
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z171" t="inlineStr"/>
       <c r="AA171" t="inlineStr"/>
       <c r="AB171" t="inlineStr"/>
@@ -10442,6 +10980,9 @@
       <c r="AN171" t="inlineStr"/>
       <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr"/>
+      <c r="AQ171" t="inlineStr"/>
+      <c r="AR171" t="inlineStr"/>
+      <c r="AS171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10451,7 +10992,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>blood -plasma matrix</t>
+          <t xml:space="preserve">blood -plasma </t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -10488,7 +11029,11 @@
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr"/>
-      <c r="Y172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z172" t="inlineStr"/>
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
@@ -10506,6 +11051,9 @@
       <c r="AN172" t="inlineStr"/>
       <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr"/>
+      <c r="AQ172" t="inlineStr"/>
+      <c r="AR172" t="inlineStr"/>
+      <c r="AS172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10515,7 +11063,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>blood -serum matrix</t>
+          <t xml:space="preserve">blood -serum </t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -10552,7 +11100,11 @@
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z173" t="inlineStr"/>
       <c r="AA173" t="inlineStr"/>
       <c r="AB173" t="inlineStr"/>
@@ -10570,6 +11122,9 @@
       <c r="AN173" t="inlineStr"/>
       <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr"/>
+      <c r="AQ173" t="inlineStr"/>
+      <c r="AR173" t="inlineStr"/>
+      <c r="AS173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10579,7 +11134,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>cord blood-whole blood matrix</t>
+          <t xml:space="preserve">cord blood-whole blood </t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -10616,7 +11171,11 @@
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="inlineStr"/>
-      <c r="Y174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z174" t="inlineStr"/>
       <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
@@ -10634,6 +11193,9 @@
       <c r="AN174" t="inlineStr"/>
       <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr"/>
+      <c r="AQ174" t="inlineStr"/>
+      <c r="AR174" t="inlineStr"/>
+      <c r="AS174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10643,7 +11205,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>cord blood-plasma matrix</t>
+          <t xml:space="preserve">cord blood-plasma </t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -10680,7 +11242,11 @@
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="inlineStr"/>
-      <c r="Y175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z175" t="inlineStr"/>
       <c r="AA175" t="inlineStr"/>
       <c r="AB175" t="inlineStr"/>
@@ -10698,6 +11264,9 @@
       <c r="AN175" t="inlineStr"/>
       <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr"/>
+      <c r="AQ175" t="inlineStr"/>
+      <c r="AR175" t="inlineStr"/>
+      <c r="AS175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10707,7 +11276,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>cord blood-serum matrix</t>
+          <t xml:space="preserve">cord blood-serum </t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -10744,7 +11313,11 @@
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z176" t="inlineStr"/>
       <c r="AA176" t="inlineStr"/>
       <c r="AB176" t="inlineStr"/>
@@ -10762,6 +11335,9 @@
       <c r="AN176" t="inlineStr"/>
       <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr"/>
+      <c r="AQ176" t="inlineStr"/>
+      <c r="AR176" t="inlineStr"/>
+      <c r="AS176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10771,7 +11347,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>urine-spot matrix</t>
+          <t xml:space="preserve">urine-spot </t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -10808,7 +11384,11 @@
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z177" t="inlineStr"/>
       <c r="AA177" t="inlineStr"/>
       <c r="AB177" t="inlineStr"/>
@@ -10826,6 +11406,9 @@
       <c r="AN177" t="inlineStr"/>
       <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr"/>
+      <c r="AQ177" t="inlineStr"/>
+      <c r="AR177" t="inlineStr"/>
+      <c r="AS177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10835,7 +11418,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>urine-24h matrix</t>
+          <t xml:space="preserve">urine-24h </t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -10872,7 +11455,11 @@
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr"/>
       <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z178" t="inlineStr"/>
       <c r="AA178" t="inlineStr"/>
       <c r="AB178" t="inlineStr"/>
@@ -10890,6 +11477,9 @@
       <c r="AN178" t="inlineStr"/>
       <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr"/>
+      <c r="AQ178" t="inlineStr"/>
+      <c r="AR178" t="inlineStr"/>
+      <c r="AS178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10899,7 +11489,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>urine-morning urine matrix</t>
+          <t xml:space="preserve">urine-morning urine </t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -10936,7 +11526,11 @@
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z179" t="inlineStr"/>
       <c r="AA179" t="inlineStr"/>
       <c r="AB179" t="inlineStr"/>
@@ -10954,6 +11548,9 @@
       <c r="AN179" t="inlineStr"/>
       <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr"/>
+      <c r="AQ179" t="inlineStr"/>
+      <c r="AR179" t="inlineStr"/>
+      <c r="AS179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10963,7 +11560,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>saliva and/or sputum matrix</t>
+          <t xml:space="preserve">saliva and/or sputum </t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -11000,7 +11597,11 @@
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z180" t="inlineStr"/>
       <c r="AA180" t="inlineStr"/>
       <c r="AB180" t="inlineStr"/>
@@ -11018,6 +11619,9 @@
       <c r="AN180" t="inlineStr"/>
       <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr"/>
+      <c r="AQ180" t="inlineStr"/>
+      <c r="AR180" t="inlineStr"/>
+      <c r="AS180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11027,7 +11631,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>semen matrix</t>
+          <t xml:space="preserve">semen </t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -11064,7 +11668,11 @@
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
       <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z181" t="inlineStr"/>
       <c r="AA181" t="inlineStr"/>
       <c r="AB181" t="inlineStr"/>
@@ -11082,6 +11690,9 @@
       <c r="AN181" t="inlineStr"/>
       <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr"/>
+      <c r="AQ181" t="inlineStr"/>
+      <c r="AR181" t="inlineStr"/>
+      <c r="AS181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11091,7 +11702,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>hair matrix</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -11128,7 +11739,11 @@
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
       <c r="AB182" t="inlineStr"/>
@@ -11146,6 +11761,9 @@
       <c r="AN182" t="inlineStr"/>
       <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr"/>
+      <c r="AQ182" t="inlineStr"/>
+      <c r="AR182" t="inlineStr"/>
+      <c r="AS182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11155,7 +11773,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>exhaled breath condensate matrix</t>
+          <t>exhaled breath condensate</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -11210,6 +11828,9 @@
       <c r="AN183" t="inlineStr"/>
       <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr"/>
+      <c r="AQ183" t="inlineStr"/>
+      <c r="AR183" t="inlineStr"/>
+      <c r="AS183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11219,7 +11840,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>red blood cells matrix</t>
+          <t>red blood cells</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -11274,6 +11895,9 @@
       <c r="AN184" t="inlineStr"/>
       <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr"/>
+      <c r="AQ184" t="inlineStr"/>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11283,7 +11907,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>breast milk matrix</t>
+          <t>breast milk</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -11342,6 +11966,9 @@
       <c r="AN185" t="inlineStr"/>
       <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr"/>
+      <c r="AQ185" t="inlineStr"/>
+      <c r="AR185" t="inlineStr"/>
+      <c r="AS185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11351,7 +11978,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>adipose tissue/fat matrix</t>
+          <t>adipose tissue/fat</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -11406,6 +12033,9 @@
       <c r="AN186" t="inlineStr"/>
       <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr"/>
+      <c r="AQ186" t="inlineStr"/>
+      <c r="AR186" t="inlineStr"/>
+      <c r="AS186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11415,7 +12045,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>all toe nails matrix</t>
+          <t>all toe nails</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -11470,6 +12100,9 @@
       <c r="AN187" t="inlineStr"/>
       <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr"/>
+      <c r="AQ187" t="inlineStr"/>
+      <c r="AR187" t="inlineStr"/>
+      <c r="AS187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11479,7 +12112,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>big toe nails matrix</t>
+          <t>big toe nails</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -11538,6 +12171,9 @@
       <c r="AN188" t="inlineStr"/>
       <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr"/>
+      <c r="AQ188" t="inlineStr"/>
+      <c r="AR188" t="inlineStr"/>
+      <c r="AS188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11547,7 +12183,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>dermal wipes matrix</t>
+          <t>dermal wipes</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -11602,6 +12238,9 @@
       <c r="AN189" t="inlineStr"/>
       <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr"/>
+      <c r="AQ189" t="inlineStr"/>
+      <c r="AR189" t="inlineStr"/>
+      <c r="AS189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11611,7 +12250,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>amniotic fluid matrix</t>
+          <t>amniotic fluid</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -11670,6 +12309,9 @@
       <c r="AN190" t="inlineStr"/>
       <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr"/>
+      <c r="AQ190" t="inlineStr"/>
+      <c r="AR190" t="inlineStr"/>
+      <c r="AS190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11679,7 +12321,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>placenta tissue matrix</t>
+          <t>placenta tissue</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -11734,6 +12376,9 @@
       <c r="AN191" t="inlineStr"/>
       <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr"/>
+      <c r="AQ191" t="inlineStr"/>
+      <c r="AR191" t="inlineStr"/>
+      <c r="AS191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11776,7 +12421,11 @@
           <t>########</t>
         </is>
       </c>
-      <c r="Y192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr"/>
@@ -11794,6 +12443,9 @@
       <c r="AN192" t="inlineStr"/>
       <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr"/>
+      <c r="AQ192" t="inlineStr"/>
+      <c r="AR192" t="inlineStr"/>
+      <c r="AS192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11846,6 +12498,9 @@
       <c r="AN193" t="inlineStr"/>
       <c r="AO193" t="inlineStr"/>
       <c r="AP193" t="inlineStr"/>
+      <c r="AQ193" t="inlineStr"/>
+      <c r="AR193" t="inlineStr"/>
+      <c r="AS193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11930,6 +12585,9 @@
       <c r="AN194" t="inlineStr"/>
       <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="inlineStr"/>
+      <c r="AQ194" t="inlineStr"/>
+      <c r="AR194" t="inlineStr"/>
+      <c r="AS194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11986,6 +12644,9 @@
       <c r="AN195" t="inlineStr"/>
       <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="inlineStr"/>
+      <c r="AQ195" t="inlineStr"/>
+      <c r="AR195" t="inlineStr"/>
+      <c r="AS195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12046,6 +12707,9 @@
       <c r="AN196" t="inlineStr"/>
       <c r="AO196" t="inlineStr"/>
       <c r="AP196" t="inlineStr"/>
+      <c r="AQ196" t="inlineStr"/>
+      <c r="AR196" t="inlineStr"/>
+      <c r="AS196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12114,6 +12778,9 @@
       <c r="AN197" t="inlineStr"/>
       <c r="AO197" t="inlineStr"/>
       <c r="AP197" t="inlineStr"/>
+      <c r="AQ197" t="inlineStr"/>
+      <c r="AR197" t="inlineStr"/>
+      <c r="AS197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12194,6 +12861,9 @@
       <c r="AN198" t="inlineStr"/>
       <c r="AO198" t="inlineStr"/>
       <c r="AP198" t="inlineStr"/>
+      <c r="AQ198" t="inlineStr"/>
+      <c r="AR198" t="inlineStr"/>
+      <c r="AS198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12278,6 +12948,9 @@
       <c r="AN199" t="inlineStr"/>
       <c r="AO199" t="inlineStr"/>
       <c r="AP199" t="inlineStr"/>
+      <c r="AQ199" t="inlineStr"/>
+      <c r="AR199" t="inlineStr"/>
+      <c r="AS199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12354,6 +13027,9 @@
       <c r="AN200" t="inlineStr"/>
       <c r="AO200" t="inlineStr"/>
       <c r="AP200" t="inlineStr"/>
+      <c r="AQ200" t="inlineStr"/>
+      <c r="AR200" t="inlineStr"/>
+      <c r="AS200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12430,6 +13106,9 @@
       <c r="AN201" t="inlineStr"/>
       <c r="AO201" t="inlineStr"/>
       <c r="AP201" t="inlineStr"/>
+      <c r="AQ201" t="inlineStr"/>
+      <c r="AR201" t="inlineStr"/>
+      <c r="AS201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12510,6 +13189,9 @@
       <c r="AN202" t="inlineStr"/>
       <c r="AO202" t="inlineStr"/>
       <c r="AP202" t="inlineStr"/>
+      <c r="AQ202" t="inlineStr"/>
+      <c r="AR202" t="inlineStr"/>
+      <c r="AS202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12594,6 +13276,9 @@
       <c r="AN203" t="inlineStr"/>
       <c r="AO203" t="inlineStr"/>
       <c r="AP203" t="inlineStr"/>
+      <c r="AQ203" t="inlineStr"/>
+      <c r="AR203" t="inlineStr"/>
+      <c r="AS203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12662,6 +13347,9 @@
       <c r="AN204" t="inlineStr"/>
       <c r="AO204" t="inlineStr"/>
       <c r="AP204" t="inlineStr"/>
+      <c r="AQ204" t="inlineStr"/>
+      <c r="AR204" t="inlineStr"/>
+      <c r="AS204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12726,6 +13414,9 @@
       <c r="AN205" t="inlineStr"/>
       <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="inlineStr"/>
+      <c r="AQ205" t="inlineStr"/>
+      <c r="AR205" t="inlineStr"/>
+      <c r="AS205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12790,6 +13481,9 @@
       <c r="AN206" t="inlineStr"/>
       <c r="AO206" t="inlineStr"/>
       <c r="AP206" t="inlineStr"/>
+      <c r="AQ206" t="inlineStr"/>
+      <c r="AR206" t="inlineStr"/>
+      <c r="AS206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12858,6 +13552,9 @@
       <c r="AN207" t="inlineStr"/>
       <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="inlineStr"/>
+      <c r="AQ207" t="inlineStr"/>
+      <c r="AR207" t="inlineStr"/>
+      <c r="AS207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12922,6 +13619,9 @@
       <c r="AN208" t="inlineStr"/>
       <c r="AO208" t="inlineStr"/>
       <c r="AP208" t="inlineStr"/>
+      <c r="AQ208" t="inlineStr"/>
+      <c r="AR208" t="inlineStr"/>
+      <c r="AS208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12986,6 +13686,9 @@
       <c r="AN209" t="inlineStr"/>
       <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="inlineStr"/>
+      <c r="AQ209" t="inlineStr"/>
+      <c r="AR209" t="inlineStr"/>
+      <c r="AS209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13058,6 +13761,9 @@
       <c r="AN210" t="inlineStr"/>
       <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="inlineStr"/>
+      <c r="AQ210" t="inlineStr"/>
+      <c r="AR210" t="inlineStr"/>
+      <c r="AS210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13122,6 +13828,9 @@
       <c r="AN211" t="inlineStr"/>
       <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="inlineStr"/>
+      <c r="AQ211" t="inlineStr"/>
+      <c r="AR211" t="inlineStr"/>
+      <c r="AS211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13186,6 +13895,9 @@
       <c r="AN212" t="inlineStr"/>
       <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="inlineStr"/>
+      <c r="AQ212" t="inlineStr"/>
+      <c r="AR212" t="inlineStr"/>
+      <c r="AS212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13250,6 +13962,9 @@
       <c r="AN213" t="inlineStr"/>
       <c r="AO213" t="inlineStr"/>
       <c r="AP213" t="inlineStr"/>
+      <c r="AQ213" t="inlineStr"/>
+      <c r="AR213" t="inlineStr"/>
+      <c r="AS213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13314,6 +14029,9 @@
       <c r="AN214" t="inlineStr"/>
       <c r="AO214" t="inlineStr"/>
       <c r="AP214" t="inlineStr"/>
+      <c r="AQ214" t="inlineStr"/>
+      <c r="AR214" t="inlineStr"/>
+      <c r="AS214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13378,6 +14096,9 @@
       <c r="AN215" t="inlineStr"/>
       <c r="AO215" t="inlineStr"/>
       <c r="AP215" t="inlineStr"/>
+      <c r="AQ215" t="inlineStr"/>
+      <c r="AR215" t="inlineStr"/>
+      <c r="AS215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13442,6 +14163,9 @@
       <c r="AN216" t="inlineStr"/>
       <c r="AO216" t="inlineStr"/>
       <c r="AP216" t="inlineStr"/>
+      <c r="AQ216" t="inlineStr"/>
+      <c r="AR216" t="inlineStr"/>
+      <c r="AS216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13502,6 +14226,9 @@
       <c r="AN217" t="inlineStr"/>
       <c r="AO217" t="inlineStr"/>
       <c r="AP217" t="inlineStr"/>
+      <c r="AQ217" t="inlineStr"/>
+      <c r="AR217" t="inlineStr"/>
+      <c r="AS217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13566,6 +14293,9 @@
       <c r="AN218" t="inlineStr"/>
       <c r="AO218" t="inlineStr"/>
       <c r="AP218" t="inlineStr"/>
+      <c r="AQ218" t="inlineStr"/>
+      <c r="AR218" t="inlineStr"/>
+      <c r="AS218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13626,6 +14356,9 @@
       <c r="AN219" t="inlineStr"/>
       <c r="AO219" t="inlineStr"/>
       <c r="AP219" t="inlineStr"/>
+      <c r="AQ219" t="inlineStr"/>
+      <c r="AR219" t="inlineStr"/>
+      <c r="AS219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13686,6 +14419,9 @@
       <c r="AN220" t="inlineStr"/>
       <c r="AO220" t="inlineStr"/>
       <c r="AP220" t="inlineStr"/>
+      <c r="AQ220" t="inlineStr"/>
+      <c r="AR220" t="inlineStr"/>
+      <c r="AS220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13746,6 +14482,9 @@
       <c r="AN221" t="inlineStr"/>
       <c r="AO221" t="inlineStr"/>
       <c r="AP221" t="inlineStr"/>
+      <c r="AQ221" t="inlineStr"/>
+      <c r="AR221" t="inlineStr"/>
+      <c r="AS221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13806,6 +14545,9 @@
       <c r="AN222" t="inlineStr"/>
       <c r="AO222" t="inlineStr"/>
       <c r="AP222" t="inlineStr"/>
+      <c r="AQ222" t="inlineStr"/>
+      <c r="AR222" t="inlineStr"/>
+      <c r="AS222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13862,6 +14604,9 @@
       <c r="AN223" t="inlineStr"/>
       <c r="AO223" t="inlineStr"/>
       <c r="AP223" t="inlineStr"/>
+      <c r="AQ223" t="inlineStr"/>
+      <c r="AR223" t="inlineStr"/>
+      <c r="AS223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13926,6 +14671,9 @@
       <c r="AN224" t="inlineStr"/>
       <c r="AO224" t="inlineStr"/>
       <c r="AP224" t="inlineStr"/>
+      <c r="AQ224" t="inlineStr"/>
+      <c r="AR224" t="inlineStr"/>
+      <c r="AS224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13982,6 +14730,9 @@
       <c r="AN225" t="inlineStr"/>
       <c r="AO225" t="inlineStr"/>
       <c r="AP225" t="inlineStr"/>
+      <c r="AQ225" t="inlineStr"/>
+      <c r="AR225" t="inlineStr"/>
+      <c r="AS225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14046,6 +14797,9 @@
       <c r="AN226" t="inlineStr"/>
       <c r="AO226" t="inlineStr"/>
       <c r="AP226" t="inlineStr"/>
+      <c r="AQ226" t="inlineStr"/>
+      <c r="AR226" t="inlineStr"/>
+      <c r="AS226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14110,6 +14864,9 @@
       <c r="AN227" t="inlineStr"/>
       <c r="AO227" t="inlineStr"/>
       <c r="AP227" t="inlineStr"/>
+      <c r="AQ227" t="inlineStr"/>
+      <c r="AR227" t="inlineStr"/>
+      <c r="AS227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14174,6 +14931,9 @@
       <c r="AN228" t="inlineStr"/>
       <c r="AO228" t="inlineStr"/>
       <c r="AP228" t="inlineStr"/>
+      <c r="AQ228" t="inlineStr"/>
+      <c r="AR228" t="inlineStr"/>
+      <c r="AS228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14238,6 +14998,9 @@
       <c r="AN229" t="inlineStr"/>
       <c r="AO229" t="inlineStr"/>
       <c r="AP229" t="inlineStr"/>
+      <c r="AQ229" t="inlineStr"/>
+      <c r="AR229" t="inlineStr"/>
+      <c r="AS229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14298,6 +15061,9 @@
       <c r="AN230" t="inlineStr"/>
       <c r="AO230" t="inlineStr"/>
       <c r="AP230" t="inlineStr"/>
+      <c r="AQ230" t="inlineStr"/>
+      <c r="AR230" t="inlineStr"/>
+      <c r="AS230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14354,6 +15120,9 @@
       <c r="AN231" t="inlineStr"/>
       <c r="AO231" t="inlineStr"/>
       <c r="AP231" t="inlineStr"/>
+      <c r="AQ231" t="inlineStr"/>
+      <c r="AR231" t="inlineStr"/>
+      <c r="AS231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14414,6 +15183,9 @@
       <c r="AN232" t="inlineStr"/>
       <c r="AO232" t="inlineStr"/>
       <c r="AP232" t="inlineStr"/>
+      <c r="AQ232" t="inlineStr"/>
+      <c r="AR232" t="inlineStr"/>
+      <c r="AS232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14474,6 +15246,9 @@
       <c r="AN233" t="inlineStr"/>
       <c r="AO233" t="inlineStr"/>
       <c r="AP233" t="inlineStr"/>
+      <c r="AQ233" t="inlineStr"/>
+      <c r="AR233" t="inlineStr"/>
+      <c r="AS233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14534,6 +15309,9 @@
       <c r="AN234" t="inlineStr"/>
       <c r="AO234" t="inlineStr"/>
       <c r="AP234" t="inlineStr"/>
+      <c r="AQ234" t="inlineStr"/>
+      <c r="AR234" t="inlineStr"/>
+      <c r="AS234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14594,6 +15372,9 @@
       <c r="AN235" t="inlineStr"/>
       <c r="AO235" t="inlineStr"/>
       <c r="AP235" t="inlineStr"/>
+      <c r="AQ235" t="inlineStr"/>
+      <c r="AR235" t="inlineStr"/>
+      <c r="AS235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14654,6 +15435,9 @@
       <c r="AN236" t="inlineStr"/>
       <c r="AO236" t="inlineStr"/>
       <c r="AP236" t="inlineStr"/>
+      <c r="AQ236" t="inlineStr"/>
+      <c r="AR236" t="inlineStr"/>
+      <c r="AS236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14714,6 +15498,9 @@
       <c r="AN237" t="inlineStr"/>
       <c r="AO237" t="inlineStr"/>
       <c r="AP237" t="inlineStr"/>
+      <c r="AQ237" t="inlineStr"/>
+      <c r="AR237" t="inlineStr"/>
+      <c r="AS237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14774,6 +15561,9 @@
       <c r="AN238" t="inlineStr"/>
       <c r="AO238" t="inlineStr"/>
       <c r="AP238" t="inlineStr"/>
+      <c r="AQ238" t="inlineStr"/>
+      <c r="AR238" t="inlineStr"/>
+      <c r="AS238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14834,6 +15624,9 @@
       <c r="AN239" t="inlineStr"/>
       <c r="AO239" t="inlineStr"/>
       <c r="AP239" t="inlineStr"/>
+      <c r="AQ239" t="inlineStr"/>
+      <c r="AR239" t="inlineStr"/>
+      <c r="AS239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14894,6 +15687,9 @@
       <c r="AN240" t="inlineStr"/>
       <c r="AO240" t="inlineStr"/>
       <c r="AP240" t="inlineStr"/>
+      <c r="AQ240" t="inlineStr"/>
+      <c r="AR240" t="inlineStr"/>
+      <c r="AS240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14954,6 +15750,9 @@
       <c r="AN241" t="inlineStr"/>
       <c r="AO241" t="inlineStr"/>
       <c r="AP241" t="inlineStr"/>
+      <c r="AQ241" t="inlineStr"/>
+      <c r="AR241" t="inlineStr"/>
+      <c r="AS241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -15014,6 +15813,9 @@
       <c r="AN242" t="inlineStr"/>
       <c r="AO242" t="inlineStr"/>
       <c r="AP242" t="inlineStr"/>
+      <c r="AQ242" t="inlineStr"/>
+      <c r="AR242" t="inlineStr"/>
+      <c r="AS242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -15074,6 +15876,9 @@
       <c r="AN243" t="inlineStr"/>
       <c r="AO243" t="inlineStr"/>
       <c r="AP243" t="inlineStr"/>
+      <c r="AQ243" t="inlineStr"/>
+      <c r="AR243" t="inlineStr"/>
+      <c r="AS243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -15134,6 +15939,9 @@
       <c r="AN244" t="inlineStr"/>
       <c r="AO244" t="inlineStr"/>
       <c r="AP244" t="inlineStr"/>
+      <c r="AQ244" t="inlineStr"/>
+      <c r="AR244" t="inlineStr"/>
+      <c r="AS244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -15194,6 +16002,9 @@
       <c r="AN245" t="inlineStr"/>
       <c r="AO245" t="inlineStr"/>
       <c r="AP245" t="inlineStr"/>
+      <c r="AQ245" t="inlineStr"/>
+      <c r="AR245" t="inlineStr"/>
+      <c r="AS245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15254,6 +16065,9 @@
       <c r="AN246" t="inlineStr"/>
       <c r="AO246" t="inlineStr"/>
       <c r="AP246" t="inlineStr"/>
+      <c r="AQ246" t="inlineStr"/>
+      <c r="AR246" t="inlineStr"/>
+      <c r="AS246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15314,6 +16128,9 @@
       <c r="AN247" t="inlineStr"/>
       <c r="AO247" t="inlineStr"/>
       <c r="AP247" t="inlineStr"/>
+      <c r="AQ247" t="inlineStr"/>
+      <c r="AR247" t="inlineStr"/>
+      <c r="AS247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15374,6 +16191,9 @@
       <c r="AN248" t="inlineStr"/>
       <c r="AO248" t="inlineStr"/>
       <c r="AP248" t="inlineStr"/>
+      <c r="AQ248" t="inlineStr"/>
+      <c r="AR248" t="inlineStr"/>
+      <c r="AS248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15434,6 +16254,9 @@
       <c r="AN249" t="inlineStr"/>
       <c r="AO249" t="inlineStr"/>
       <c r="AP249" t="inlineStr"/>
+      <c r="AQ249" t="inlineStr"/>
+      <c r="AR249" t="inlineStr"/>
+      <c r="AS249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15494,6 +16317,9 @@
       <c r="AN250" t="inlineStr"/>
       <c r="AO250" t="inlineStr"/>
       <c r="AP250" t="inlineStr"/>
+      <c r="AQ250" t="inlineStr"/>
+      <c r="AR250" t="inlineStr"/>
+      <c r="AS250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15554,6 +16380,9 @@
       <c r="AN251" t="inlineStr"/>
       <c r="AO251" t="inlineStr"/>
       <c r="AP251" t="inlineStr"/>
+      <c r="AQ251" t="inlineStr"/>
+      <c r="AR251" t="inlineStr"/>
+      <c r="AS251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15614,6 +16443,9 @@
       <c r="AN252" t="inlineStr"/>
       <c r="AO252" t="inlineStr"/>
       <c r="AP252" t="inlineStr"/>
+      <c r="AQ252" t="inlineStr"/>
+      <c r="AR252" t="inlineStr"/>
+      <c r="AS252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15674,6 +16506,9 @@
       <c r="AN253" t="inlineStr"/>
       <c r="AO253" t="inlineStr"/>
       <c r="AP253" t="inlineStr"/>
+      <c r="AQ253" t="inlineStr"/>
+      <c r="AR253" t="inlineStr"/>
+      <c r="AS253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15734,6 +16569,9 @@
       <c r="AN254" t="inlineStr"/>
       <c r="AO254" t="inlineStr"/>
       <c r="AP254" t="inlineStr"/>
+      <c r="AQ254" t="inlineStr"/>
+      <c r="AR254" t="inlineStr"/>
+      <c r="AS254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15794,6 +16632,9 @@
       <c r="AN255" t="inlineStr"/>
       <c r="AO255" t="inlineStr"/>
       <c r="AP255" t="inlineStr"/>
+      <c r="AQ255" t="inlineStr"/>
+      <c r="AR255" t="inlineStr"/>
+      <c r="AS255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15854,6 +16695,9 @@
       <c r="AN256" t="inlineStr"/>
       <c r="AO256" t="inlineStr"/>
       <c r="AP256" t="inlineStr"/>
+      <c r="AQ256" t="inlineStr"/>
+      <c r="AR256" t="inlineStr"/>
+      <c r="AS256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15914,6 +16758,9 @@
       <c r="AN257" t="inlineStr"/>
       <c r="AO257" t="inlineStr"/>
       <c r="AP257" t="inlineStr"/>
+      <c r="AQ257" t="inlineStr"/>
+      <c r="AR257" t="inlineStr"/>
+      <c r="AS257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15974,6 +16821,9 @@
       <c r="AN258" t="inlineStr"/>
       <c r="AO258" t="inlineStr"/>
       <c r="AP258" t="inlineStr"/>
+      <c r="AQ258" t="inlineStr"/>
+      <c r="AR258" t="inlineStr"/>
+      <c r="AS258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -16034,6 +16884,9 @@
       <c r="AN259" t="inlineStr"/>
       <c r="AO259" t="inlineStr"/>
       <c r="AP259" t="inlineStr"/>
+      <c r="AQ259" t="inlineStr"/>
+      <c r="AR259" t="inlineStr"/>
+      <c r="AS259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -16094,6 +16947,9 @@
       <c r="AN260" t="inlineStr"/>
       <c r="AO260" t="inlineStr"/>
       <c r="AP260" t="inlineStr"/>
+      <c r="AQ260" t="inlineStr"/>
+      <c r="AR260" t="inlineStr"/>
+      <c r="AS260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -16154,6 +17010,9 @@
       <c r="AN261" t="inlineStr"/>
       <c r="AO261" t="inlineStr"/>
       <c r="AP261" t="inlineStr"/>
+      <c r="AQ261" t="inlineStr"/>
+      <c r="AR261" t="inlineStr"/>
+      <c r="AS261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -16214,6 +17073,9 @@
       <c r="AN262" t="inlineStr"/>
       <c r="AO262" t="inlineStr"/>
       <c r="AP262" t="inlineStr"/>
+      <c r="AQ262" t="inlineStr"/>
+      <c r="AR262" t="inlineStr"/>
+      <c r="AS262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -16274,6 +17136,9 @@
       <c r="AN263" t="inlineStr"/>
       <c r="AO263" t="inlineStr"/>
       <c r="AP263" t="inlineStr"/>
+      <c r="AQ263" t="inlineStr"/>
+      <c r="AR263" t="inlineStr"/>
+      <c r="AS263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -16330,6 +17195,9 @@
       <c r="AN264" t="inlineStr"/>
       <c r="AO264" t="inlineStr"/>
       <c r="AP264" t="inlineStr"/>
+      <c r="AQ264" t="inlineStr"/>
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16390,6 +17258,9 @@
       <c r="AN265" t="inlineStr"/>
       <c r="AO265" t="inlineStr"/>
       <c r="AP265" t="inlineStr"/>
+      <c r="AQ265" t="inlineStr"/>
+      <c r="AR265" t="inlineStr"/>
+      <c r="AS265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16450,6 +17321,9 @@
       <c r="AN266" t="inlineStr"/>
       <c r="AO266" t="inlineStr"/>
       <c r="AP266" t="inlineStr"/>
+      <c r="AQ266" t="inlineStr"/>
+      <c r="AR266" t="inlineStr"/>
+      <c r="AS266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -16510,6 +17384,9 @@
       <c r="AN267" t="inlineStr"/>
       <c r="AO267" t="inlineStr"/>
       <c r="AP267" t="inlineStr"/>
+      <c r="AQ267" t="inlineStr"/>
+      <c r="AR267" t="inlineStr"/>
+      <c r="AS267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16570,6 +17447,9 @@
       <c r="AN268" t="inlineStr"/>
       <c r="AO268" t="inlineStr"/>
       <c r="AP268" t="inlineStr"/>
+      <c r="AQ268" t="inlineStr"/>
+      <c r="AR268" t="inlineStr"/>
+      <c r="AS268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16630,6 +17510,9 @@
       <c r="AN269" t="inlineStr"/>
       <c r="AO269" t="inlineStr"/>
       <c r="AP269" t="inlineStr"/>
+      <c r="AQ269" t="inlineStr"/>
+      <c r="AR269" t="inlineStr"/>
+      <c r="AS269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16690,6 +17573,9 @@
       <c r="AN270" t="inlineStr"/>
       <c r="AO270" t="inlineStr"/>
       <c r="AP270" t="inlineStr"/>
+      <c r="AQ270" t="inlineStr"/>
+      <c r="AR270" t="inlineStr"/>
+      <c r="AS270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16750,6 +17636,9 @@
       <c r="AN271" t="inlineStr"/>
       <c r="AO271" t="inlineStr"/>
       <c r="AP271" t="inlineStr"/>
+      <c r="AQ271" t="inlineStr"/>
+      <c r="AR271" t="inlineStr"/>
+      <c r="AS271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16806,6 +17695,9 @@
       <c r="AN272" t="inlineStr"/>
       <c r="AO272" t="inlineStr"/>
       <c r="AP272" t="inlineStr"/>
+      <c r="AQ272" t="inlineStr"/>
+      <c r="AR272" t="inlineStr"/>
+      <c r="AS272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16866,6 +17758,9 @@
       <c r="AN273" t="inlineStr"/>
       <c r="AO273" t="inlineStr"/>
       <c r="AP273" t="inlineStr"/>
+      <c r="AQ273" t="inlineStr"/>
+      <c r="AR273" t="inlineStr"/>
+      <c r="AS273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16926,6 +17821,9 @@
       <c r="AN274" t="inlineStr"/>
       <c r="AO274" t="inlineStr"/>
       <c r="AP274" t="inlineStr"/>
+      <c r="AQ274" t="inlineStr"/>
+      <c r="AR274" t="inlineStr"/>
+      <c r="AS274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16986,6 +17884,9 @@
       <c r="AN275" t="inlineStr"/>
       <c r="AO275" t="inlineStr"/>
       <c r="AP275" t="inlineStr"/>
+      <c r="AQ275" t="inlineStr"/>
+      <c r="AR275" t="inlineStr"/>
+      <c r="AS275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -17046,6 +17947,9 @@
       <c r="AN276" t="inlineStr"/>
       <c r="AO276" t="inlineStr"/>
       <c r="AP276" t="inlineStr"/>
+      <c r="AQ276" t="inlineStr"/>
+      <c r="AR276" t="inlineStr"/>
+      <c r="AS276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -17106,6 +18010,9 @@
       <c r="AN277" t="inlineStr"/>
       <c r="AO277" t="inlineStr"/>
       <c r="AP277" t="inlineStr"/>
+      <c r="AQ277" t="inlineStr"/>
+      <c r="AR277" t="inlineStr"/>
+      <c r="AS277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -17166,6 +18073,9 @@
       <c r="AN278" t="inlineStr"/>
       <c r="AO278" t="inlineStr"/>
       <c r="AP278" t="inlineStr"/>
+      <c r="AQ278" t="inlineStr"/>
+      <c r="AR278" t="inlineStr"/>
+      <c r="AS278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -17222,6 +18132,9 @@
       <c r="AN279" t="inlineStr"/>
       <c r="AO279" t="inlineStr"/>
       <c r="AP279" t="inlineStr"/>
+      <c r="AQ279" t="inlineStr"/>
+      <c r="AR279" t="inlineStr"/>
+      <c r="AS279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -17282,6 +18195,9 @@
       <c r="AN280" t="inlineStr"/>
       <c r="AO280" t="inlineStr"/>
       <c r="AP280" t="inlineStr"/>
+      <c r="AQ280" t="inlineStr"/>
+      <c r="AR280" t="inlineStr"/>
+      <c r="AS280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -17342,6 +18258,9 @@
       <c r="AN281" t="inlineStr"/>
       <c r="AO281" t="inlineStr"/>
       <c r="AP281" t="inlineStr"/>
+      <c r="AQ281" t="inlineStr"/>
+      <c r="AR281" t="inlineStr"/>
+      <c r="AS281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17351,7 +18270,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>osmolarity</t>
+          <t>osmolality</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
@@ -17382,7 +18301,7 @@
       <c r="X282" t="inlineStr"/>
       <c r="Y282" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="Z282" t="inlineStr"/>
@@ -17402,6 +18321,9 @@
       <c r="AN282" t="inlineStr"/>
       <c r="AO282" t="inlineStr"/>
       <c r="AP282" t="inlineStr"/>
+      <c r="AQ282" t="inlineStr"/>
+      <c r="AR282" t="inlineStr"/>
+      <c r="AS282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -17458,6 +18380,9 @@
       <c r="AN283" t="inlineStr"/>
       <c r="AO283" t="inlineStr"/>
       <c r="AP283" t="inlineStr"/>
+      <c r="AQ283" t="inlineStr"/>
+      <c r="AR283" t="inlineStr"/>
+      <c r="AS283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -17518,6 +18443,9 @@
       <c r="AN284" t="inlineStr"/>
       <c r="AO284" t="inlineStr"/>
       <c r="AP284" t="inlineStr"/>
+      <c r="AQ284" t="inlineStr"/>
+      <c r="AR284" t="inlineStr"/>
+      <c r="AS284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17578,6 +18506,9 @@
       <c r="AN285" t="inlineStr"/>
       <c r="AO285" t="inlineStr"/>
       <c r="AP285" t="inlineStr"/>
+      <c r="AQ285" t="inlineStr"/>
+      <c r="AR285" t="inlineStr"/>
+      <c r="AS285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17638,6 +18569,9 @@
       <c r="AN286" t="inlineStr"/>
       <c r="AO286" t="inlineStr"/>
       <c r="AP286" t="inlineStr"/>
+      <c r="AQ286" t="inlineStr"/>
+      <c r="AR286" t="inlineStr"/>
+      <c r="AS286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17694,6 +18628,9 @@
       <c r="AN287" t="inlineStr"/>
       <c r="AO287" t="inlineStr"/>
       <c r="AP287" t="inlineStr"/>
+      <c r="AQ287" t="inlineStr"/>
+      <c r="AR287" t="inlineStr"/>
+      <c r="AS287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17754,6 +18691,9 @@
       <c r="AN288" t="inlineStr"/>
       <c r="AO288" t="inlineStr"/>
       <c r="AP288" t="inlineStr"/>
+      <c r="AQ288" t="inlineStr"/>
+      <c r="AR288" t="inlineStr"/>
+      <c r="AS288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17814,6 +18754,9 @@
       <c r="AN289" t="inlineStr"/>
       <c r="AO289" t="inlineStr"/>
       <c r="AP289" t="inlineStr"/>
+      <c r="AQ289" t="inlineStr"/>
+      <c r="AR289" t="inlineStr"/>
+      <c r="AS289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17874,6 +18817,9 @@
       <c r="AN290" t="inlineStr"/>
       <c r="AO290" t="inlineStr"/>
       <c r="AP290" t="inlineStr"/>
+      <c r="AQ290" t="inlineStr"/>
+      <c r="AR290" t="inlineStr"/>
+      <c r="AS290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17934,6 +18880,9 @@
       <c r="AN291" t="inlineStr"/>
       <c r="AO291" t="inlineStr"/>
       <c r="AP291" t="inlineStr"/>
+      <c r="AQ291" t="inlineStr"/>
+      <c r="AR291" t="inlineStr"/>
+      <c r="AS291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17994,6 +18943,9 @@
       <c r="AN292" t="inlineStr"/>
       <c r="AO292" t="inlineStr"/>
       <c r="AP292" t="inlineStr"/>
+      <c r="AQ292" t="inlineStr"/>
+      <c r="AR292" t="inlineStr"/>
+      <c r="AS292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -18054,6 +19006,9 @@
       <c r="AN293" t="inlineStr"/>
       <c r="AO293" t="inlineStr"/>
       <c r="AP293" t="inlineStr"/>
+      <c r="AQ293" t="inlineStr"/>
+      <c r="AR293" t="inlineStr"/>
+      <c r="AS293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -18110,6 +19065,9 @@
       <c r="AN294" t="inlineStr"/>
       <c r="AO294" t="inlineStr"/>
       <c r="AP294" t="inlineStr"/>
+      <c r="AQ294" t="inlineStr"/>
+      <c r="AR294" t="inlineStr"/>
+      <c r="AS294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -18170,6 +19128,9 @@
       <c r="AN295" t="inlineStr"/>
       <c r="AO295" t="inlineStr"/>
       <c r="AP295" t="inlineStr"/>
+      <c r="AQ295" t="inlineStr"/>
+      <c r="AR295" t="inlineStr"/>
+      <c r="AS295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -18230,6 +19191,9 @@
       <c r="AN296" t="inlineStr"/>
       <c r="AO296" t="inlineStr"/>
       <c r="AP296" t="inlineStr"/>
+      <c r="AQ296" t="inlineStr"/>
+      <c r="AR296" t="inlineStr"/>
+      <c r="AS296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -18290,6 +19254,9 @@
       <c r="AN297" t="inlineStr"/>
       <c r="AO297" t="inlineStr"/>
       <c r="AP297" t="inlineStr"/>
+      <c r="AQ297" t="inlineStr"/>
+      <c r="AR297" t="inlineStr"/>
+      <c r="AS297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -18299,7 +19266,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>quality assurance/qualtiy control method</t>
+          <t>quality assurance/quality control method</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
@@ -18326,7 +19293,7 @@
       <c r="X298" t="inlineStr"/>
       <c r="Y298" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="Z298" t="inlineStr"/>
@@ -18346,6 +19313,9 @@
       <c r="AN298" t="inlineStr"/>
       <c r="AO298" t="inlineStr"/>
       <c r="AP298" t="inlineStr"/>
+      <c r="AQ298" t="inlineStr"/>
+      <c r="AR298" t="inlineStr"/>
+      <c r="AS298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -18406,6 +19376,9 @@
       <c r="AN299" t="inlineStr"/>
       <c r="AO299" t="inlineStr"/>
       <c r="AP299" t="inlineStr"/>
+      <c r="AQ299" t="inlineStr"/>
+      <c r="AR299" t="inlineStr"/>
+      <c r="AS299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -18466,6 +19439,9 @@
       <c r="AN300" t="inlineStr"/>
       <c r="AO300" t="inlineStr"/>
       <c r="AP300" t="inlineStr"/>
+      <c r="AQ300" t="inlineStr"/>
+      <c r="AR300" t="inlineStr"/>
+      <c r="AS300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -18526,6 +19502,9 @@
       <c r="AN301" t="inlineStr"/>
       <c r="AO301" t="inlineStr"/>
       <c r="AP301" t="inlineStr"/>
+      <c r="AQ301" t="inlineStr"/>
+      <c r="AR301" t="inlineStr"/>
+      <c r="AS301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -18586,6 +19565,9 @@
       <c r="AN302" t="inlineStr"/>
       <c r="AO302" t="inlineStr"/>
       <c r="AP302" t="inlineStr"/>
+      <c r="AQ302" t="inlineStr"/>
+      <c r="AR302" t="inlineStr"/>
+      <c r="AS302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -18646,6 +19628,9 @@
       <c r="AN303" t="inlineStr"/>
       <c r="AO303" t="inlineStr"/>
       <c r="AP303" t="inlineStr"/>
+      <c r="AQ303" t="inlineStr"/>
+      <c r="AR303" t="inlineStr"/>
+      <c r="AS303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -18706,6 +19691,9 @@
       <c r="AN304" t="inlineStr"/>
       <c r="AO304" t="inlineStr"/>
       <c r="AP304" t="inlineStr"/>
+      <c r="AQ304" t="inlineStr"/>
+      <c r="AR304" t="inlineStr"/>
+      <c r="AS304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18766,6 +19754,9 @@
       <c r="AN305" t="inlineStr"/>
       <c r="AO305" t="inlineStr"/>
       <c r="AP305" t="inlineStr"/>
+      <c r="AQ305" t="inlineStr"/>
+      <c r="AR305" t="inlineStr"/>
+      <c r="AS305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -18826,6 +19817,9 @@
       <c r="AN306" t="inlineStr"/>
       <c r="AO306" t="inlineStr"/>
       <c r="AP306" t="inlineStr"/>
+      <c r="AQ306" t="inlineStr"/>
+      <c r="AR306" t="inlineStr"/>
+      <c r="AS306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -18835,7 +19829,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>settings the conditions for sample storage</t>
+          <t>setting the conditions for sample storage</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
@@ -18866,7 +19860,7 @@
       <c r="X307" t="inlineStr"/>
       <c r="Y307" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-10</t>
         </is>
       </c>
       <c r="Z307" t="inlineStr"/>
@@ -18886,6 +19880,3191 @@
       <c r="AN307" t="inlineStr"/>
       <c r="AO307" t="inlineStr"/>
       <c r="AP307" t="inlineStr"/>
+      <c r="AQ307" t="inlineStr"/>
+      <c r="AR307" t="inlineStr"/>
+      <c r="AS307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>vocab:1288</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>exhaled air</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr"/>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
+      <c r="R308" t="inlineStr"/>
+      <c r="S308" t="inlineStr"/>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr"/>
+      <c r="V308" t="inlineStr"/>
+      <c r="W308" t="inlineStr"/>
+      <c r="X308" t="inlineStr"/>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr"/>
+      <c r="AA308" t="inlineStr"/>
+      <c r="AB308" t="inlineStr"/>
+      <c r="AC308" t="inlineStr"/>
+      <c r="AD308" t="inlineStr"/>
+      <c r="AE308" t="inlineStr"/>
+      <c r="AF308" t="inlineStr"/>
+      <c r="AG308" t="inlineStr"/>
+      <c r="AH308" t="inlineStr"/>
+      <c r="AI308" t="inlineStr"/>
+      <c r="AJ308" t="inlineStr"/>
+      <c r="AK308" t="inlineStr"/>
+      <c r="AL308" t="inlineStr"/>
+      <c r="AM308" t="inlineStr"/>
+      <c r="AN308" t="inlineStr"/>
+      <c r="AO308" t="inlineStr"/>
+      <c r="AP308" t="inlineStr"/>
+      <c r="AQ308" t="inlineStr"/>
+      <c r="AR308" t="inlineStr"/>
+      <c r="AS308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>vocab:1289</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>dried blood spots</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>DBS</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
+      <c r="R309" t="inlineStr"/>
+      <c r="S309" t="inlineStr"/>
+      <c r="T309" t="inlineStr"/>
+      <c r="U309" t="inlineStr"/>
+      <c r="V309" t="inlineStr"/>
+      <c r="W309" t="inlineStr"/>
+      <c r="X309" t="inlineStr"/>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr"/>
+      <c r="AA309" t="inlineStr"/>
+      <c r="AB309" t="inlineStr"/>
+      <c r="AC309" t="inlineStr"/>
+      <c r="AD309" t="inlineStr"/>
+      <c r="AE309" t="inlineStr"/>
+      <c r="AF309" t="inlineStr"/>
+      <c r="AG309" t="inlineStr"/>
+      <c r="AH309" t="inlineStr"/>
+      <c r="AI309" t="inlineStr"/>
+      <c r="AJ309" t="inlineStr"/>
+      <c r="AK309" t="inlineStr"/>
+      <c r="AL309" t="inlineStr"/>
+      <c r="AM309" t="inlineStr"/>
+      <c r="AN309" t="inlineStr"/>
+      <c r="AO309" t="inlineStr"/>
+      <c r="AP309" t="inlineStr"/>
+      <c r="AQ309" t="inlineStr"/>
+      <c r="AR309" t="inlineStr"/>
+      <c r="AS309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>vocab:1290</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>volumetric absorptive microsample</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr"/>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>VAMS</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="inlineStr"/>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr"/>
+      <c r="R310" t="inlineStr"/>
+      <c r="S310" t="inlineStr"/>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr"/>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr"/>
+      <c r="AA310" t="inlineStr"/>
+      <c r="AB310" t="inlineStr"/>
+      <c r="AC310" t="inlineStr"/>
+      <c r="AD310" t="inlineStr"/>
+      <c r="AE310" t="inlineStr"/>
+      <c r="AF310" t="inlineStr"/>
+      <c r="AG310" t="inlineStr"/>
+      <c r="AH310" t="inlineStr"/>
+      <c r="AI310" t="inlineStr"/>
+      <c r="AJ310" t="inlineStr"/>
+      <c r="AK310" t="inlineStr"/>
+      <c r="AL310" t="inlineStr"/>
+      <c r="AM310" t="inlineStr"/>
+      <c r="AN310" t="inlineStr"/>
+      <c r="AO310" t="inlineStr"/>
+      <c r="AP310" t="inlineStr"/>
+      <c r="AQ310" t="inlineStr"/>
+      <c r="AR310" t="inlineStr"/>
+      <c r="AS310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>environmental matrix</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr"/>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr"/>
+      <c r="R311" t="inlineStr"/>
+      <c r="S311" t="inlineStr"/>
+      <c r="T311" t="inlineStr"/>
+      <c r="U311" t="inlineStr"/>
+      <c r="V311" t="inlineStr"/>
+      <c r="W311" t="inlineStr"/>
+      <c r="X311" t="inlineStr"/>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr"/>
+      <c r="AA311" t="inlineStr"/>
+      <c r="AB311" t="inlineStr"/>
+      <c r="AC311" t="inlineStr"/>
+      <c r="AD311" t="inlineStr"/>
+      <c r="AE311" t="inlineStr"/>
+      <c r="AF311" t="inlineStr"/>
+      <c r="AG311" t="inlineStr"/>
+      <c r="AH311" t="inlineStr"/>
+      <c r="AI311" t="inlineStr"/>
+      <c r="AJ311" t="inlineStr"/>
+      <c r="AK311" t="inlineStr"/>
+      <c r="AL311" t="inlineStr"/>
+      <c r="AM311" t="inlineStr"/>
+      <c r="AN311" t="inlineStr"/>
+      <c r="AO311" t="inlineStr"/>
+      <c r="AP311" t="inlineStr"/>
+      <c r="AQ311" t="inlineStr"/>
+      <c r="AR311" t="inlineStr"/>
+      <c r="AS311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>vocab:1292</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>silicone wrist band</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr"/>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>SWB</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr"/>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr"/>
+      <c r="R312" t="inlineStr"/>
+      <c r="S312" t="inlineStr"/>
+      <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
+      <c r="V312" t="inlineStr"/>
+      <c r="W312" t="inlineStr"/>
+      <c r="X312" t="inlineStr"/>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z312" t="inlineStr"/>
+      <c r="AA312" t="inlineStr"/>
+      <c r="AB312" t="inlineStr"/>
+      <c r="AC312" t="inlineStr"/>
+      <c r="AD312" t="inlineStr"/>
+      <c r="AE312" t="inlineStr"/>
+      <c r="AF312" t="inlineStr"/>
+      <c r="AG312" t="inlineStr"/>
+      <c r="AH312" t="inlineStr"/>
+      <c r="AI312" t="inlineStr"/>
+      <c r="AJ312" t="inlineStr"/>
+      <c r="AK312" t="inlineStr"/>
+      <c r="AL312" t="inlineStr"/>
+      <c r="AM312" t="inlineStr"/>
+      <c r="AN312" t="inlineStr"/>
+      <c r="AO312" t="inlineStr"/>
+      <c r="AP312" t="inlineStr"/>
+      <c r="AQ312" t="inlineStr"/>
+      <c r="AR312" t="inlineStr"/>
+      <c r="AS312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>vocab:1293</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>indoor dust</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr"/>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>IDUST</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr"/>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
+      <c r="S313" t="inlineStr"/>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
+      <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr"/>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z313" t="inlineStr"/>
+      <c r="AA313" t="inlineStr"/>
+      <c r="AB313" t="inlineStr"/>
+      <c r="AC313" t="inlineStr"/>
+      <c r="AD313" t="inlineStr"/>
+      <c r="AE313" t="inlineStr"/>
+      <c r="AF313" t="inlineStr"/>
+      <c r="AG313" t="inlineStr"/>
+      <c r="AH313" t="inlineStr"/>
+      <c r="AI313" t="inlineStr"/>
+      <c r="AJ313" t="inlineStr"/>
+      <c r="AK313" t="inlineStr"/>
+      <c r="AL313" t="inlineStr"/>
+      <c r="AM313" t="inlineStr"/>
+      <c r="AN313" t="inlineStr"/>
+      <c r="AO313" t="inlineStr"/>
+      <c r="AP313" t="inlineStr"/>
+      <c r="AQ313" t="inlineStr"/>
+      <c r="AR313" t="inlineStr"/>
+      <c r="AS313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>vocab:1294</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>outdoor dust</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>ODUST</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="inlineStr"/>
+      <c r="O314" t="inlineStr"/>
+      <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr"/>
+      <c r="R314" t="inlineStr"/>
+      <c r="S314" t="inlineStr"/>
+      <c r="T314" t="inlineStr"/>
+      <c r="U314" t="inlineStr"/>
+      <c r="V314" t="inlineStr"/>
+      <c r="W314" t="inlineStr"/>
+      <c r="X314" t="inlineStr"/>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr"/>
+      <c r="AA314" t="inlineStr"/>
+      <c r="AB314" t="inlineStr"/>
+      <c r="AC314" t="inlineStr"/>
+      <c r="AD314" t="inlineStr"/>
+      <c r="AE314" t="inlineStr"/>
+      <c r="AF314" t="inlineStr"/>
+      <c r="AG314" t="inlineStr"/>
+      <c r="AH314" t="inlineStr"/>
+      <c r="AI314" t="inlineStr"/>
+      <c r="AJ314" t="inlineStr"/>
+      <c r="AK314" t="inlineStr"/>
+      <c r="AL314" t="inlineStr"/>
+      <c r="AM314" t="inlineStr"/>
+      <c r="AN314" t="inlineStr"/>
+      <c r="AO314" t="inlineStr"/>
+      <c r="AP314" t="inlineStr"/>
+      <c r="AQ314" t="inlineStr"/>
+      <c r="AR314" t="inlineStr"/>
+      <c r="AS314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>vocab:1295</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>indoor air-stationary</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>IAIR</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="inlineStr"/>
+      <c r="O315" t="inlineStr"/>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr"/>
+      <c r="R315" t="inlineStr"/>
+      <c r="S315" t="inlineStr"/>
+      <c r="T315" t="inlineStr"/>
+      <c r="U315" t="inlineStr"/>
+      <c r="V315" t="inlineStr"/>
+      <c r="W315" t="inlineStr"/>
+      <c r="X315" t="inlineStr"/>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr"/>
+      <c r="AA315" t="inlineStr"/>
+      <c r="AB315" t="inlineStr"/>
+      <c r="AC315" t="inlineStr"/>
+      <c r="AD315" t="inlineStr"/>
+      <c r="AE315" t="inlineStr"/>
+      <c r="AF315" t="inlineStr"/>
+      <c r="AG315" t="inlineStr"/>
+      <c r="AH315" t="inlineStr"/>
+      <c r="AI315" t="inlineStr"/>
+      <c r="AJ315" t="inlineStr"/>
+      <c r="AK315" t="inlineStr"/>
+      <c r="AL315" t="inlineStr"/>
+      <c r="AM315" t="inlineStr"/>
+      <c r="AN315" t="inlineStr"/>
+      <c r="AO315" t="inlineStr"/>
+      <c r="AP315" t="inlineStr"/>
+      <c r="AQ315" t="inlineStr"/>
+      <c r="AR315" t="inlineStr"/>
+      <c r="AS315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>vocab:1296</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>outdoor air-stationary</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>OAIR</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="inlineStr"/>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
+      <c r="R316" t="inlineStr"/>
+      <c r="S316" t="inlineStr"/>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr"/>
+      <c r="V316" t="inlineStr"/>
+      <c r="W316" t="inlineStr"/>
+      <c r="X316" t="inlineStr"/>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr"/>
+      <c r="AA316" t="inlineStr"/>
+      <c r="AB316" t="inlineStr"/>
+      <c r="AC316" t="inlineStr"/>
+      <c r="AD316" t="inlineStr"/>
+      <c r="AE316" t="inlineStr"/>
+      <c r="AF316" t="inlineStr"/>
+      <c r="AG316" t="inlineStr"/>
+      <c r="AH316" t="inlineStr"/>
+      <c r="AI316" t="inlineStr"/>
+      <c r="AJ316" t="inlineStr"/>
+      <c r="AK316" t="inlineStr"/>
+      <c r="AL316" t="inlineStr"/>
+      <c r="AM316" t="inlineStr"/>
+      <c r="AN316" t="inlineStr"/>
+      <c r="AO316" t="inlineStr"/>
+      <c r="AP316" t="inlineStr"/>
+      <c r="AQ316" t="inlineStr"/>
+      <c r="AR316" t="inlineStr"/>
+      <c r="AS316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>vocab:1297</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>personal air</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr"/>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>PAIR</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
+      <c r="S317" t="inlineStr"/>
+      <c r="T317" t="inlineStr"/>
+      <c r="U317" t="inlineStr"/>
+      <c r="V317" t="inlineStr"/>
+      <c r="W317" t="inlineStr"/>
+      <c r="X317" t="inlineStr"/>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z317" t="inlineStr"/>
+      <c r="AA317" t="inlineStr"/>
+      <c r="AB317" t="inlineStr"/>
+      <c r="AC317" t="inlineStr"/>
+      <c r="AD317" t="inlineStr"/>
+      <c r="AE317" t="inlineStr"/>
+      <c r="AF317" t="inlineStr"/>
+      <c r="AG317" t="inlineStr"/>
+      <c r="AH317" t="inlineStr"/>
+      <c r="AI317" t="inlineStr"/>
+      <c r="AJ317" t="inlineStr"/>
+      <c r="AK317" t="inlineStr"/>
+      <c r="AL317" t="inlineStr"/>
+      <c r="AM317" t="inlineStr"/>
+      <c r="AN317" t="inlineStr"/>
+      <c r="AO317" t="inlineStr"/>
+      <c r="AP317" t="inlineStr"/>
+      <c r="AQ317" t="inlineStr"/>
+      <c r="AR317" t="inlineStr"/>
+      <c r="AS317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>vocab:1298</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>surface wipe</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr"/>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>vocab:1291</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="inlineStr"/>
+      <c r="O318" t="inlineStr"/>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr"/>
+      <c r="R318" t="inlineStr"/>
+      <c r="S318" t="inlineStr"/>
+      <c r="T318" t="inlineStr"/>
+      <c r="U318" t="inlineStr"/>
+      <c r="V318" t="inlineStr"/>
+      <c r="W318" t="inlineStr"/>
+      <c r="X318" t="inlineStr"/>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z318" t="inlineStr"/>
+      <c r="AA318" t="inlineStr"/>
+      <c r="AB318" t="inlineStr"/>
+      <c r="AC318" t="inlineStr"/>
+      <c r="AD318" t="inlineStr"/>
+      <c r="AE318" t="inlineStr"/>
+      <c r="AF318" t="inlineStr"/>
+      <c r="AG318" t="inlineStr"/>
+      <c r="AH318" t="inlineStr"/>
+      <c r="AI318" t="inlineStr"/>
+      <c r="AJ318" t="inlineStr"/>
+      <c r="AK318" t="inlineStr"/>
+      <c r="AL318" t="inlineStr"/>
+      <c r="AM318" t="inlineStr"/>
+      <c r="AN318" t="inlineStr"/>
+      <c r="AO318" t="inlineStr"/>
+      <c r="AP318" t="inlineStr"/>
+      <c r="AQ318" t="inlineStr"/>
+      <c r="AR318" t="inlineStr"/>
+      <c r="AS318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>vocab:1299</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>collection place</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+      <c r="D319" t="inlineStr"/>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="inlineStr"/>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
+      <c r="S319" t="inlineStr"/>
+      <c r="T319" t="inlineStr"/>
+      <c r="U319" t="inlineStr"/>
+      <c r="V319" t="inlineStr"/>
+      <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr"/>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z319" t="inlineStr"/>
+      <c r="AA319" t="inlineStr"/>
+      <c r="AB319" t="inlineStr"/>
+      <c r="AC319" t="inlineStr"/>
+      <c r="AD319" t="inlineStr"/>
+      <c r="AE319" t="inlineStr"/>
+      <c r="AF319" t="inlineStr"/>
+      <c r="AG319" t="inlineStr"/>
+      <c r="AH319" t="inlineStr"/>
+      <c r="AI319" t="inlineStr"/>
+      <c r="AJ319" t="inlineStr"/>
+      <c r="AK319" t="inlineStr"/>
+      <c r="AL319" t="inlineStr"/>
+      <c r="AM319" t="inlineStr"/>
+      <c r="AN319" t="inlineStr"/>
+      <c r="AO319" t="inlineStr"/>
+      <c r="AP319" t="inlineStr"/>
+      <c r="AQ319" t="inlineStr"/>
+      <c r="AR319" t="inlineStr"/>
+      <c r="AS319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>vocab:1300</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>participants home</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr"/>
+      <c r="D320" t="inlineStr"/>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>vocab:1299</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="inlineStr"/>
+      <c r="O320" t="inlineStr"/>
+      <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
+      <c r="R320" t="inlineStr"/>
+      <c r="S320" t="inlineStr"/>
+      <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr"/>
+      <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr"/>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z320" t="inlineStr"/>
+      <c r="AA320" t="inlineStr"/>
+      <c r="AB320" t="inlineStr"/>
+      <c r="AC320" t="inlineStr"/>
+      <c r="AD320" t="inlineStr"/>
+      <c r="AE320" t="inlineStr"/>
+      <c r="AF320" t="inlineStr"/>
+      <c r="AG320" t="inlineStr"/>
+      <c r="AH320" t="inlineStr"/>
+      <c r="AI320" t="inlineStr"/>
+      <c r="AJ320" t="inlineStr"/>
+      <c r="AK320" t="inlineStr"/>
+      <c r="AL320" t="inlineStr"/>
+      <c r="AM320" t="inlineStr"/>
+      <c r="AN320" t="inlineStr"/>
+      <c r="AO320" t="inlineStr"/>
+      <c r="AP320" t="inlineStr"/>
+      <c r="AQ320" t="inlineStr"/>
+      <c r="AR320" t="inlineStr"/>
+      <c r="AS320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>vocab:1301</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>educational establishment</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr"/>
+      <c r="D321" t="inlineStr"/>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>vocab:1299</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="inlineStr"/>
+      <c r="O321" t="inlineStr"/>
+      <c r="P321" t="inlineStr"/>
+      <c r="Q321" t="inlineStr"/>
+      <c r="R321" t="inlineStr"/>
+      <c r="S321" t="inlineStr"/>
+      <c r="T321" t="inlineStr"/>
+      <c r="U321" t="inlineStr"/>
+      <c r="V321" t="inlineStr"/>
+      <c r="W321" t="inlineStr"/>
+      <c r="X321" t="inlineStr"/>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z321" t="inlineStr"/>
+      <c r="AA321" t="inlineStr"/>
+      <c r="AB321" t="inlineStr"/>
+      <c r="AC321" t="inlineStr"/>
+      <c r="AD321" t="inlineStr"/>
+      <c r="AE321" t="inlineStr"/>
+      <c r="AF321" t="inlineStr"/>
+      <c r="AG321" t="inlineStr"/>
+      <c r="AH321" t="inlineStr"/>
+      <c r="AI321" t="inlineStr"/>
+      <c r="AJ321" t="inlineStr"/>
+      <c r="AK321" t="inlineStr"/>
+      <c r="AL321" t="inlineStr"/>
+      <c r="AM321" t="inlineStr"/>
+      <c r="AN321" t="inlineStr"/>
+      <c r="AO321" t="inlineStr"/>
+      <c r="AP321" t="inlineStr"/>
+      <c r="AQ321" t="inlineStr"/>
+      <c r="AR321" t="inlineStr"/>
+      <c r="AS321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>vocab:1302</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>workplace</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr"/>
+      <c r="D322" t="inlineStr"/>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>vocab:1299</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="inlineStr"/>
+      <c r="O322" t="inlineStr"/>
+      <c r="P322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr"/>
+      <c r="R322" t="inlineStr"/>
+      <c r="S322" t="inlineStr"/>
+      <c r="T322" t="inlineStr"/>
+      <c r="U322" t="inlineStr"/>
+      <c r="V322" t="inlineStr"/>
+      <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr"/>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z322" t="inlineStr"/>
+      <c r="AA322" t="inlineStr"/>
+      <c r="AB322" t="inlineStr"/>
+      <c r="AC322" t="inlineStr"/>
+      <c r="AD322" t="inlineStr"/>
+      <c r="AE322" t="inlineStr"/>
+      <c r="AF322" t="inlineStr"/>
+      <c r="AG322" t="inlineStr"/>
+      <c r="AH322" t="inlineStr"/>
+      <c r="AI322" t="inlineStr"/>
+      <c r="AJ322" t="inlineStr"/>
+      <c r="AK322" t="inlineStr"/>
+      <c r="AL322" t="inlineStr"/>
+      <c r="AM322" t="inlineStr"/>
+      <c r="AN322" t="inlineStr"/>
+      <c r="AO322" t="inlineStr"/>
+      <c r="AP322" t="inlineStr"/>
+      <c r="AQ322" t="inlineStr"/>
+      <c r="AR322" t="inlineStr"/>
+      <c r="AS322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>vocab:1303</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>healthcare establishment</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr"/>
+      <c r="D323" t="inlineStr"/>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>vocab:1299</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="inlineStr"/>
+      <c r="O323" t="inlineStr"/>
+      <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
+      <c r="S323" t="inlineStr"/>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr"/>
+      <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr"/>
+      <c r="Y323" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z323" t="inlineStr"/>
+      <c r="AA323" t="inlineStr"/>
+      <c r="AB323" t="inlineStr"/>
+      <c r="AC323" t="inlineStr"/>
+      <c r="AD323" t="inlineStr"/>
+      <c r="AE323" t="inlineStr"/>
+      <c r="AF323" t="inlineStr"/>
+      <c r="AG323" t="inlineStr"/>
+      <c r="AH323" t="inlineStr"/>
+      <c r="AI323" t="inlineStr"/>
+      <c r="AJ323" t="inlineStr"/>
+      <c r="AK323" t="inlineStr"/>
+      <c r="AL323" t="inlineStr"/>
+      <c r="AM323" t="inlineStr"/>
+      <c r="AN323" t="inlineStr"/>
+      <c r="AO323" t="inlineStr"/>
+      <c r="AP323" t="inlineStr"/>
+      <c r="AQ323" t="inlineStr"/>
+      <c r="AR323" t="inlineStr"/>
+      <c r="AS323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>questionnaire type</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr"/>
+      <c r="D324" t="inlineStr"/>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr"/>
+      <c r="O324" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
+      <c r="R324" t="inlineStr"/>
+      <c r="S324" t="inlineStr"/>
+      <c r="T324" t="inlineStr"/>
+      <c r="U324" t="inlineStr"/>
+      <c r="V324" t="inlineStr"/>
+      <c r="W324" t="inlineStr"/>
+      <c r="X324" t="inlineStr"/>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z324" t="inlineStr"/>
+      <c r="AA324" t="inlineStr"/>
+      <c r="AB324" t="inlineStr"/>
+      <c r="AC324" t="inlineStr"/>
+      <c r="AD324" t="inlineStr"/>
+      <c r="AE324" t="inlineStr"/>
+      <c r="AF324" t="inlineStr"/>
+      <c r="AG324" t="inlineStr"/>
+      <c r="AH324" t="inlineStr"/>
+      <c r="AI324" t="inlineStr"/>
+      <c r="AJ324" t="inlineStr"/>
+      <c r="AK324" t="inlineStr"/>
+      <c r="AL324" t="inlineStr"/>
+      <c r="AM324" t="inlineStr"/>
+      <c r="AN324" t="inlineStr"/>
+      <c r="AO324" t="inlineStr"/>
+      <c r="AP324" t="inlineStr"/>
+      <c r="AQ324" t="inlineStr"/>
+      <c r="AR324" t="inlineStr"/>
+      <c r="AS324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>vocab:1305</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>non-responder questionnaire</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr"/>
+      <c r="D325" t="inlineStr"/>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr"/>
+      <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr"/>
+      <c r="R325" t="inlineStr"/>
+      <c r="S325" t="inlineStr"/>
+      <c r="T325" t="inlineStr"/>
+      <c r="U325" t="inlineStr"/>
+      <c r="V325" t="inlineStr"/>
+      <c r="W325" t="inlineStr"/>
+      <c r="X325" t="inlineStr"/>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z325" t="inlineStr"/>
+      <c r="AA325" t="inlineStr"/>
+      <c r="AB325" t="inlineStr"/>
+      <c r="AC325" t="inlineStr"/>
+      <c r="AD325" t="inlineStr"/>
+      <c r="AE325" t="inlineStr"/>
+      <c r="AF325" t="inlineStr"/>
+      <c r="AG325" t="inlineStr"/>
+      <c r="AH325" t="inlineStr"/>
+      <c r="AI325" t="inlineStr"/>
+      <c r="AJ325" t="inlineStr"/>
+      <c r="AK325" t="inlineStr"/>
+      <c r="AL325" t="inlineStr"/>
+      <c r="AM325" t="inlineStr"/>
+      <c r="AN325" t="inlineStr"/>
+      <c r="AO325" t="inlineStr"/>
+      <c r="AP325" t="inlineStr"/>
+      <c r="AQ325" t="inlineStr"/>
+      <c r="AR325" t="inlineStr"/>
+      <c r="AS325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>vocab:1306</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>recruitment questionnaire</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr"/>
+      <c r="D326" t="inlineStr"/>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
+      <c r="R326" t="inlineStr"/>
+      <c r="S326" t="inlineStr"/>
+      <c r="T326" t="inlineStr"/>
+      <c r="U326" t="inlineStr"/>
+      <c r="V326" t="inlineStr"/>
+      <c r="W326" t="inlineStr"/>
+      <c r="X326" t="inlineStr"/>
+      <c r="Y326" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z326" t="inlineStr"/>
+      <c r="AA326" t="inlineStr"/>
+      <c r="AB326" t="inlineStr"/>
+      <c r="AC326" t="inlineStr"/>
+      <c r="AD326" t="inlineStr"/>
+      <c r="AE326" t="inlineStr"/>
+      <c r="AF326" t="inlineStr"/>
+      <c r="AG326" t="inlineStr"/>
+      <c r="AH326" t="inlineStr"/>
+      <c r="AI326" t="inlineStr"/>
+      <c r="AJ326" t="inlineStr"/>
+      <c r="AK326" t="inlineStr"/>
+      <c r="AL326" t="inlineStr"/>
+      <c r="AM326" t="inlineStr"/>
+      <c r="AN326" t="inlineStr"/>
+      <c r="AO326" t="inlineStr"/>
+      <c r="AP326" t="inlineStr"/>
+      <c r="AQ326" t="inlineStr"/>
+      <c r="AR326" t="inlineStr"/>
+      <c r="AS326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>vocab:1307</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>matrix/sample collection questionnaire</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr"/>
+      <c r="D327" t="inlineStr"/>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr"/>
+      <c r="N327" t="inlineStr"/>
+      <c r="O327" t="inlineStr"/>
+      <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="inlineStr"/>
+      <c r="S327" t="inlineStr"/>
+      <c r="T327" t="inlineStr"/>
+      <c r="U327" t="inlineStr"/>
+      <c r="V327" t="inlineStr"/>
+      <c r="W327" t="inlineStr"/>
+      <c r="X327" t="inlineStr"/>
+      <c r="Y327" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z327" t="inlineStr"/>
+      <c r="AA327" t="inlineStr"/>
+      <c r="AB327" t="inlineStr"/>
+      <c r="AC327" t="inlineStr"/>
+      <c r="AD327" t="inlineStr"/>
+      <c r="AE327" t="inlineStr"/>
+      <c r="AF327" t="inlineStr"/>
+      <c r="AG327" t="inlineStr"/>
+      <c r="AH327" t="inlineStr"/>
+      <c r="AI327" t="inlineStr"/>
+      <c r="AJ327" t="inlineStr"/>
+      <c r="AK327" t="inlineStr"/>
+      <c r="AL327" t="inlineStr"/>
+      <c r="AM327" t="inlineStr"/>
+      <c r="AN327" t="inlineStr"/>
+      <c r="AO327" t="inlineStr"/>
+      <c r="AP327" t="inlineStr"/>
+      <c r="AQ327" t="inlineStr"/>
+      <c r="AR327" t="inlineStr"/>
+      <c r="AS327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>vocab:1308</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>recent exposure questionnaire</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr"/>
+      <c r="D328" t="inlineStr"/>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="inlineStr"/>
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr"/>
+      <c r="R328" t="inlineStr"/>
+      <c r="S328" t="inlineStr"/>
+      <c r="T328" t="inlineStr"/>
+      <c r="U328" t="inlineStr"/>
+      <c r="V328" t="inlineStr"/>
+      <c r="W328" t="inlineStr"/>
+      <c r="X328" t="inlineStr"/>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z328" t="inlineStr"/>
+      <c r="AA328" t="inlineStr"/>
+      <c r="AB328" t="inlineStr"/>
+      <c r="AC328" t="inlineStr"/>
+      <c r="AD328" t="inlineStr"/>
+      <c r="AE328" t="inlineStr"/>
+      <c r="AF328" t="inlineStr"/>
+      <c r="AG328" t="inlineStr"/>
+      <c r="AH328" t="inlineStr"/>
+      <c r="AI328" t="inlineStr"/>
+      <c r="AJ328" t="inlineStr"/>
+      <c r="AK328" t="inlineStr"/>
+      <c r="AL328" t="inlineStr"/>
+      <c r="AM328" t="inlineStr"/>
+      <c r="AN328" t="inlineStr"/>
+      <c r="AO328" t="inlineStr"/>
+      <c r="AP328" t="inlineStr"/>
+      <c r="AQ328" t="inlineStr"/>
+      <c r="AR328" t="inlineStr"/>
+      <c r="AS328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>vocab:1309</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>24 hours food diaries</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr"/>
+      <c r="D329" t="inlineStr"/>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="inlineStr"/>
+      <c r="O329" t="inlineStr"/>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr"/>
+      <c r="R329" t="inlineStr"/>
+      <c r="S329" t="inlineStr"/>
+      <c r="T329" t="inlineStr"/>
+      <c r="U329" t="inlineStr"/>
+      <c r="V329" t="inlineStr"/>
+      <c r="W329" t="inlineStr"/>
+      <c r="X329" t="inlineStr"/>
+      <c r="Y329" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z329" t="inlineStr"/>
+      <c r="AA329" t="inlineStr"/>
+      <c r="AB329" t="inlineStr"/>
+      <c r="AC329" t="inlineStr"/>
+      <c r="AD329" t="inlineStr"/>
+      <c r="AE329" t="inlineStr"/>
+      <c r="AF329" t="inlineStr"/>
+      <c r="AG329" t="inlineStr"/>
+      <c r="AH329" t="inlineStr"/>
+      <c r="AI329" t="inlineStr"/>
+      <c r="AJ329" t="inlineStr"/>
+      <c r="AK329" t="inlineStr"/>
+      <c r="AL329" t="inlineStr"/>
+      <c r="AM329" t="inlineStr"/>
+      <c r="AN329" t="inlineStr"/>
+      <c r="AO329" t="inlineStr"/>
+      <c r="AP329" t="inlineStr"/>
+      <c r="AQ329" t="inlineStr"/>
+      <c r="AR329" t="inlineStr"/>
+      <c r="AS329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>vocab:1310</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>food frequency questionnaire</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>FFQ</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="inlineStr"/>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr"/>
+      <c r="R330" t="inlineStr"/>
+      <c r="S330" t="inlineStr"/>
+      <c r="T330" t="inlineStr"/>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr"/>
+      <c r="W330" t="inlineStr"/>
+      <c r="X330" t="inlineStr"/>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z330" t="inlineStr"/>
+      <c r="AA330" t="inlineStr"/>
+      <c r="AB330" t="inlineStr"/>
+      <c r="AC330" t="inlineStr"/>
+      <c r="AD330" t="inlineStr"/>
+      <c r="AE330" t="inlineStr"/>
+      <c r="AF330" t="inlineStr"/>
+      <c r="AG330" t="inlineStr"/>
+      <c r="AH330" t="inlineStr"/>
+      <c r="AI330" t="inlineStr"/>
+      <c r="AJ330" t="inlineStr"/>
+      <c r="AK330" t="inlineStr"/>
+      <c r="AL330" t="inlineStr"/>
+      <c r="AM330" t="inlineStr"/>
+      <c r="AN330" t="inlineStr"/>
+      <c r="AO330" t="inlineStr"/>
+      <c r="AP330" t="inlineStr"/>
+      <c r="AQ330" t="inlineStr"/>
+      <c r="AR330" t="inlineStr"/>
+      <c r="AS330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>vocab:1311</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>food propensity questionnaire</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>FDP</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>vocab:1304</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr"/>
+      <c r="N331" t="inlineStr"/>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
+      <c r="S331" t="inlineStr"/>
+      <c r="T331" t="inlineStr"/>
+      <c r="U331" t="inlineStr"/>
+      <c r="V331" t="inlineStr"/>
+      <c r="W331" t="inlineStr"/>
+      <c r="X331" t="inlineStr"/>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z331" t="inlineStr"/>
+      <c r="AA331" t="inlineStr"/>
+      <c r="AB331" t="inlineStr"/>
+      <c r="AC331" t="inlineStr"/>
+      <c r="AD331" t="inlineStr"/>
+      <c r="AE331" t="inlineStr"/>
+      <c r="AF331" t="inlineStr"/>
+      <c r="AG331" t="inlineStr"/>
+      <c r="AH331" t="inlineStr"/>
+      <c r="AI331" t="inlineStr"/>
+      <c r="AJ331" t="inlineStr"/>
+      <c r="AK331" t="inlineStr"/>
+      <c r="AL331" t="inlineStr"/>
+      <c r="AM331" t="inlineStr"/>
+      <c r="AN331" t="inlineStr"/>
+      <c r="AO331" t="inlineStr"/>
+      <c r="AP331" t="inlineStr"/>
+      <c r="AQ331" t="inlineStr"/>
+      <c r="AR331" t="inlineStr"/>
+      <c r="AS331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>mode of questionnaire conduct</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr"/>
+      <c r="N332" t="inlineStr"/>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr"/>
+      <c r="R332" t="inlineStr"/>
+      <c r="S332" t="inlineStr"/>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
+      <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr"/>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z332" t="inlineStr"/>
+      <c r="AA332" t="inlineStr"/>
+      <c r="AB332" t="inlineStr"/>
+      <c r="AC332" t="inlineStr"/>
+      <c r="AD332" t="inlineStr"/>
+      <c r="AE332" t="inlineStr"/>
+      <c r="AF332" t="inlineStr"/>
+      <c r="AG332" t="inlineStr"/>
+      <c r="AH332" t="inlineStr"/>
+      <c r="AI332" t="inlineStr"/>
+      <c r="AJ332" t="inlineStr"/>
+      <c r="AK332" t="inlineStr"/>
+      <c r="AL332" t="inlineStr"/>
+      <c r="AM332" t="inlineStr"/>
+      <c r="AN332" t="inlineStr"/>
+      <c r="AO332" t="inlineStr"/>
+      <c r="AP332" t="inlineStr"/>
+      <c r="AQ332" t="inlineStr"/>
+      <c r="AR332" t="inlineStr"/>
+      <c r="AS332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>vocab:1313</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">paper administered personal interview </t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>PAPI</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr"/>
+      <c r="N333" t="inlineStr"/>
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr"/>
+      <c r="R333" t="inlineStr"/>
+      <c r="S333" t="inlineStr"/>
+      <c r="T333" t="inlineStr"/>
+      <c r="U333" t="inlineStr"/>
+      <c r="V333" t="inlineStr"/>
+      <c r="W333" t="inlineStr"/>
+      <c r="X333" t="inlineStr"/>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z333" t="inlineStr"/>
+      <c r="AA333" t="inlineStr"/>
+      <c r="AB333" t="inlineStr"/>
+      <c r="AC333" t="inlineStr"/>
+      <c r="AD333" t="inlineStr"/>
+      <c r="AE333" t="inlineStr"/>
+      <c r="AF333" t="inlineStr"/>
+      <c r="AG333" t="inlineStr"/>
+      <c r="AH333" t="inlineStr"/>
+      <c r="AI333" t="inlineStr"/>
+      <c r="AJ333" t="inlineStr"/>
+      <c r="AK333" t="inlineStr"/>
+      <c r="AL333" t="inlineStr"/>
+      <c r="AM333" t="inlineStr"/>
+      <c r="AN333" t="inlineStr"/>
+      <c r="AO333" t="inlineStr"/>
+      <c r="AP333" t="inlineStr"/>
+      <c r="AQ333" t="inlineStr"/>
+      <c r="AR333" t="inlineStr"/>
+      <c r="AS333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>vocab:1314</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>computer-assisted personal interview</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>CAPI</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr"/>
+      <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
+      <c r="R334" t="inlineStr"/>
+      <c r="S334" t="inlineStr"/>
+      <c r="T334" t="inlineStr"/>
+      <c r="U334" t="inlineStr"/>
+      <c r="V334" t="inlineStr"/>
+      <c r="W334" t="inlineStr"/>
+      <c r="X334" t="inlineStr"/>
+      <c r="Y334" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z334" t="inlineStr"/>
+      <c r="AA334" t="inlineStr"/>
+      <c r="AB334" t="inlineStr"/>
+      <c r="AC334" t="inlineStr"/>
+      <c r="AD334" t="inlineStr"/>
+      <c r="AE334" t="inlineStr"/>
+      <c r="AF334" t="inlineStr"/>
+      <c r="AG334" t="inlineStr"/>
+      <c r="AH334" t="inlineStr"/>
+      <c r="AI334" t="inlineStr"/>
+      <c r="AJ334" t="inlineStr"/>
+      <c r="AK334" t="inlineStr"/>
+      <c r="AL334" t="inlineStr"/>
+      <c r="AM334" t="inlineStr"/>
+      <c r="AN334" t="inlineStr"/>
+      <c r="AO334" t="inlineStr"/>
+      <c r="AP334" t="inlineStr"/>
+      <c r="AQ334" t="inlineStr"/>
+      <c r="AR334" t="inlineStr"/>
+      <c r="AS334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>vocab:1315</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>paper administered telephone interview</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>PATI</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr"/>
+      <c r="N335" t="inlineStr"/>
+      <c r="O335" t="inlineStr"/>
+      <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr"/>
+      <c r="R335" t="inlineStr"/>
+      <c r="S335" t="inlineStr"/>
+      <c r="T335" t="inlineStr"/>
+      <c r="U335" t="inlineStr"/>
+      <c r="V335" t="inlineStr"/>
+      <c r="W335" t="inlineStr"/>
+      <c r="X335" t="inlineStr"/>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr"/>
+      <c r="AA335" t="inlineStr"/>
+      <c r="AB335" t="inlineStr"/>
+      <c r="AC335" t="inlineStr"/>
+      <c r="AD335" t="inlineStr"/>
+      <c r="AE335" t="inlineStr"/>
+      <c r="AF335" t="inlineStr"/>
+      <c r="AG335" t="inlineStr"/>
+      <c r="AH335" t="inlineStr"/>
+      <c r="AI335" t="inlineStr"/>
+      <c r="AJ335" t="inlineStr"/>
+      <c r="AK335" t="inlineStr"/>
+      <c r="AL335" t="inlineStr"/>
+      <c r="AM335" t="inlineStr"/>
+      <c r="AN335" t="inlineStr"/>
+      <c r="AO335" t="inlineStr"/>
+      <c r="AP335" t="inlineStr"/>
+      <c r="AQ335" t="inlineStr"/>
+      <c r="AR335" t="inlineStr"/>
+      <c r="AS335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>vocab:1316</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>computer-assisted telephone interview</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>CATI</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
+      <c r="M336" t="inlineStr"/>
+      <c r="N336" t="inlineStr"/>
+      <c r="O336" t="inlineStr"/>
+      <c r="P336" t="inlineStr"/>
+      <c r="Q336" t="inlineStr"/>
+      <c r="R336" t="inlineStr"/>
+      <c r="S336" t="inlineStr"/>
+      <c r="T336" t="inlineStr"/>
+      <c r="U336" t="inlineStr"/>
+      <c r="V336" t="inlineStr"/>
+      <c r="W336" t="inlineStr"/>
+      <c r="X336" t="inlineStr"/>
+      <c r="Y336" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z336" t="inlineStr"/>
+      <c r="AA336" t="inlineStr"/>
+      <c r="AB336" t="inlineStr"/>
+      <c r="AC336" t="inlineStr"/>
+      <c r="AD336" t="inlineStr"/>
+      <c r="AE336" t="inlineStr"/>
+      <c r="AF336" t="inlineStr"/>
+      <c r="AG336" t="inlineStr"/>
+      <c r="AH336" t="inlineStr"/>
+      <c r="AI336" t="inlineStr"/>
+      <c r="AJ336" t="inlineStr"/>
+      <c r="AK336" t="inlineStr"/>
+      <c r="AL336" t="inlineStr"/>
+      <c r="AM336" t="inlineStr"/>
+      <c r="AN336" t="inlineStr"/>
+      <c r="AO336" t="inlineStr"/>
+      <c r="AP336" t="inlineStr"/>
+      <c r="AQ336" t="inlineStr"/>
+      <c r="AR336" t="inlineStr"/>
+      <c r="AS336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>vocab:1317</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>self-administered questionnaire (paper)</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr"/>
+      <c r="N337" t="inlineStr"/>
+      <c r="O337" t="inlineStr"/>
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr"/>
+      <c r="R337" t="inlineStr"/>
+      <c r="S337" t="inlineStr"/>
+      <c r="T337" t="inlineStr"/>
+      <c r="U337" t="inlineStr"/>
+      <c r="V337" t="inlineStr"/>
+      <c r="W337" t="inlineStr"/>
+      <c r="X337" t="inlineStr"/>
+      <c r="Y337" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z337" t="inlineStr"/>
+      <c r="AA337" t="inlineStr"/>
+      <c r="AB337" t="inlineStr"/>
+      <c r="AC337" t="inlineStr"/>
+      <c r="AD337" t="inlineStr"/>
+      <c r="AE337" t="inlineStr"/>
+      <c r="AF337" t="inlineStr"/>
+      <c r="AG337" t="inlineStr"/>
+      <c r="AH337" t="inlineStr"/>
+      <c r="AI337" t="inlineStr"/>
+      <c r="AJ337" t="inlineStr"/>
+      <c r="AK337" t="inlineStr"/>
+      <c r="AL337" t="inlineStr"/>
+      <c r="AM337" t="inlineStr"/>
+      <c r="AN337" t="inlineStr"/>
+      <c r="AO337" t="inlineStr"/>
+      <c r="AP337" t="inlineStr"/>
+      <c r="AQ337" t="inlineStr"/>
+      <c r="AR337" t="inlineStr"/>
+      <c r="AS337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>vocab:1318</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>self-administered questionnaire (online)</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>vocab:1312</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr"/>
+      <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr"/>
+      <c r="R338" t="inlineStr"/>
+      <c r="S338" t="inlineStr"/>
+      <c r="T338" t="inlineStr"/>
+      <c r="U338" t="inlineStr"/>
+      <c r="V338" t="inlineStr"/>
+      <c r="W338" t="inlineStr"/>
+      <c r="X338" t="inlineStr"/>
+      <c r="Y338" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z338" t="inlineStr"/>
+      <c r="AA338" t="inlineStr"/>
+      <c r="AB338" t="inlineStr"/>
+      <c r="AC338" t="inlineStr"/>
+      <c r="AD338" t="inlineStr"/>
+      <c r="AE338" t="inlineStr"/>
+      <c r="AF338" t="inlineStr"/>
+      <c r="AG338" t="inlineStr"/>
+      <c r="AH338" t="inlineStr"/>
+      <c r="AI338" t="inlineStr"/>
+      <c r="AJ338" t="inlineStr"/>
+      <c r="AK338" t="inlineStr"/>
+      <c r="AL338" t="inlineStr"/>
+      <c r="AM338" t="inlineStr"/>
+      <c r="AN338" t="inlineStr"/>
+      <c r="AO338" t="inlineStr"/>
+      <c r="AP338" t="inlineStr"/>
+      <c r="AQ338" t="inlineStr"/>
+      <c r="AR338" t="inlineStr"/>
+      <c r="AS338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>data registry type</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr"/>
+      <c r="N339" t="inlineStr"/>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr"/>
+      <c r="R339" t="inlineStr"/>
+      <c r="S339" t="inlineStr"/>
+      <c r="T339" t="inlineStr"/>
+      <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
+      <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr"/>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z339" t="inlineStr"/>
+      <c r="AA339" t="inlineStr"/>
+      <c r="AB339" t="inlineStr"/>
+      <c r="AC339" t="inlineStr"/>
+      <c r="AD339" t="inlineStr"/>
+      <c r="AE339" t="inlineStr"/>
+      <c r="AF339" t="inlineStr"/>
+      <c r="AG339" t="inlineStr"/>
+      <c r="AH339" t="inlineStr"/>
+      <c r="AI339" t="inlineStr"/>
+      <c r="AJ339" t="inlineStr"/>
+      <c r="AK339" t="inlineStr"/>
+      <c r="AL339" t="inlineStr"/>
+      <c r="AM339" t="inlineStr"/>
+      <c r="AN339" t="inlineStr"/>
+      <c r="AO339" t="inlineStr"/>
+      <c r="AP339" t="inlineStr"/>
+      <c r="AQ339" t="inlineStr"/>
+      <c r="AR339" t="inlineStr"/>
+      <c r="AS339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>vocab:1320</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>birth register</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr"/>
+      <c r="N340" t="inlineStr"/>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
+      <c r="S340" t="inlineStr"/>
+      <c r="T340" t="inlineStr"/>
+      <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr"/>
+      <c r="Y340" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z340" t="inlineStr"/>
+      <c r="AA340" t="inlineStr"/>
+      <c r="AB340" t="inlineStr"/>
+      <c r="AC340" t="inlineStr"/>
+      <c r="AD340" t="inlineStr"/>
+      <c r="AE340" t="inlineStr"/>
+      <c r="AF340" t="inlineStr"/>
+      <c r="AG340" t="inlineStr"/>
+      <c r="AH340" t="inlineStr"/>
+      <c r="AI340" t="inlineStr"/>
+      <c r="AJ340" t="inlineStr"/>
+      <c r="AK340" t="inlineStr"/>
+      <c r="AL340" t="inlineStr"/>
+      <c r="AM340" t="inlineStr"/>
+      <c r="AN340" t="inlineStr"/>
+      <c r="AO340" t="inlineStr"/>
+      <c r="AP340" t="inlineStr"/>
+      <c r="AQ340" t="inlineStr"/>
+      <c r="AR340" t="inlineStr"/>
+      <c r="AS340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>vocab:1321</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>cancer incidence</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
+      <c r="S341" t="inlineStr"/>
+      <c r="T341" t="inlineStr"/>
+      <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
+      <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr"/>
+      <c r="Y341" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z341" t="inlineStr"/>
+      <c r="AA341" t="inlineStr"/>
+      <c r="AB341" t="inlineStr"/>
+      <c r="AC341" t="inlineStr"/>
+      <c r="AD341" t="inlineStr"/>
+      <c r="AE341" t="inlineStr"/>
+      <c r="AF341" t="inlineStr"/>
+      <c r="AG341" t="inlineStr"/>
+      <c r="AH341" t="inlineStr"/>
+      <c r="AI341" t="inlineStr"/>
+      <c r="AJ341" t="inlineStr"/>
+      <c r="AK341" t="inlineStr"/>
+      <c r="AL341" t="inlineStr"/>
+      <c r="AM341" t="inlineStr"/>
+      <c r="AN341" t="inlineStr"/>
+      <c r="AO341" t="inlineStr"/>
+      <c r="AP341" t="inlineStr"/>
+      <c r="AQ341" t="inlineStr"/>
+      <c r="AR341" t="inlineStr"/>
+      <c r="AS341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>vocab:1322</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>disease specific clinical database</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr"/>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
+      <c r="S342" t="inlineStr"/>
+      <c r="T342" t="inlineStr"/>
+      <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
+      <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr"/>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z342" t="inlineStr"/>
+      <c r="AA342" t="inlineStr"/>
+      <c r="AB342" t="inlineStr"/>
+      <c r="AC342" t="inlineStr"/>
+      <c r="AD342" t="inlineStr"/>
+      <c r="AE342" t="inlineStr"/>
+      <c r="AF342" t="inlineStr"/>
+      <c r="AG342" t="inlineStr"/>
+      <c r="AH342" t="inlineStr"/>
+      <c r="AI342" t="inlineStr"/>
+      <c r="AJ342" t="inlineStr"/>
+      <c r="AK342" t="inlineStr"/>
+      <c r="AL342" t="inlineStr"/>
+      <c r="AM342" t="inlineStr"/>
+      <c r="AN342" t="inlineStr"/>
+      <c r="AO342" t="inlineStr"/>
+      <c r="AP342" t="inlineStr"/>
+      <c r="AQ342" t="inlineStr"/>
+      <c r="AR342" t="inlineStr"/>
+      <c r="AS342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>vocab:1323</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>employment status</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr"/>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr"/>
+      <c r="R343" t="inlineStr"/>
+      <c r="S343" t="inlineStr"/>
+      <c r="T343" t="inlineStr"/>
+      <c r="U343" t="inlineStr"/>
+      <c r="V343" t="inlineStr"/>
+      <c r="W343" t="inlineStr"/>
+      <c r="X343" t="inlineStr"/>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr"/>
+      <c r="AA343" t="inlineStr"/>
+      <c r="AB343" t="inlineStr"/>
+      <c r="AC343" t="inlineStr"/>
+      <c r="AD343" t="inlineStr"/>
+      <c r="AE343" t="inlineStr"/>
+      <c r="AF343" t="inlineStr"/>
+      <c r="AG343" t="inlineStr"/>
+      <c r="AH343" t="inlineStr"/>
+      <c r="AI343" t="inlineStr"/>
+      <c r="AJ343" t="inlineStr"/>
+      <c r="AK343" t="inlineStr"/>
+      <c r="AL343" t="inlineStr"/>
+      <c r="AM343" t="inlineStr"/>
+      <c r="AN343" t="inlineStr"/>
+      <c r="AO343" t="inlineStr"/>
+      <c r="AP343" t="inlineStr"/>
+      <c r="AQ343" t="inlineStr"/>
+      <c r="AR343" t="inlineStr"/>
+      <c r="AS343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>vocab:1324</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>hospital discharge</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr"/>
+      <c r="R344" t="inlineStr"/>
+      <c r="S344" t="inlineStr"/>
+      <c r="T344" t="inlineStr"/>
+      <c r="U344" t="inlineStr"/>
+      <c r="V344" t="inlineStr"/>
+      <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr"/>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr"/>
+      <c r="AA344" t="inlineStr"/>
+      <c r="AB344" t="inlineStr"/>
+      <c r="AC344" t="inlineStr"/>
+      <c r="AD344" t="inlineStr"/>
+      <c r="AE344" t="inlineStr"/>
+      <c r="AF344" t="inlineStr"/>
+      <c r="AG344" t="inlineStr"/>
+      <c r="AH344" t="inlineStr"/>
+      <c r="AI344" t="inlineStr"/>
+      <c r="AJ344" t="inlineStr"/>
+      <c r="AK344" t="inlineStr"/>
+      <c r="AL344" t="inlineStr"/>
+      <c r="AM344" t="inlineStr"/>
+      <c r="AN344" t="inlineStr"/>
+      <c r="AO344" t="inlineStr"/>
+      <c r="AP344" t="inlineStr"/>
+      <c r="AQ344" t="inlineStr"/>
+      <c r="AR344" t="inlineStr"/>
+      <c r="AS344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>vocab:1325</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>medication usage</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="inlineStr"/>
+      <c r="M345" t="inlineStr"/>
+      <c r="N345" t="inlineStr"/>
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
+      <c r="S345" t="inlineStr"/>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr"/>
+      <c r="X345" t="inlineStr"/>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr"/>
+      <c r="AA345" t="inlineStr"/>
+      <c r="AB345" t="inlineStr"/>
+      <c r="AC345" t="inlineStr"/>
+      <c r="AD345" t="inlineStr"/>
+      <c r="AE345" t="inlineStr"/>
+      <c r="AF345" t="inlineStr"/>
+      <c r="AG345" t="inlineStr"/>
+      <c r="AH345" t="inlineStr"/>
+      <c r="AI345" t="inlineStr"/>
+      <c r="AJ345" t="inlineStr"/>
+      <c r="AK345" t="inlineStr"/>
+      <c r="AL345" t="inlineStr"/>
+      <c r="AM345" t="inlineStr"/>
+      <c r="AN345" t="inlineStr"/>
+      <c r="AO345" t="inlineStr"/>
+      <c r="AP345" t="inlineStr"/>
+      <c r="AQ345" t="inlineStr"/>
+      <c r="AR345" t="inlineStr"/>
+      <c r="AS345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>vocab:1326</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>migration</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr"/>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="inlineStr"/>
+      <c r="M346" t="inlineStr"/>
+      <c r="N346" t="inlineStr"/>
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr"/>
+      <c r="S346" t="inlineStr"/>
+      <c r="T346" t="inlineStr"/>
+      <c r="U346" t="inlineStr"/>
+      <c r="V346" t="inlineStr"/>
+      <c r="W346" t="inlineStr"/>
+      <c r="X346" t="inlineStr"/>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr"/>
+      <c r="AA346" t="inlineStr"/>
+      <c r="AB346" t="inlineStr"/>
+      <c r="AC346" t="inlineStr"/>
+      <c r="AD346" t="inlineStr"/>
+      <c r="AE346" t="inlineStr"/>
+      <c r="AF346" t="inlineStr"/>
+      <c r="AG346" t="inlineStr"/>
+      <c r="AH346" t="inlineStr"/>
+      <c r="AI346" t="inlineStr"/>
+      <c r="AJ346" t="inlineStr"/>
+      <c r="AK346" t="inlineStr"/>
+      <c r="AL346" t="inlineStr"/>
+      <c r="AM346" t="inlineStr"/>
+      <c r="AN346" t="inlineStr"/>
+      <c r="AO346" t="inlineStr"/>
+      <c r="AP346" t="inlineStr"/>
+      <c r="AQ346" t="inlineStr"/>
+      <c r="AR346" t="inlineStr"/>
+      <c r="AS346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>vocab:1327</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>mortality register</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr"/>
+      <c r="D347" t="inlineStr"/>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="inlineStr"/>
+      <c r="M347" t="inlineStr"/>
+      <c r="N347" t="inlineStr"/>
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
+      <c r="S347" t="inlineStr"/>
+      <c r="T347" t="inlineStr"/>
+      <c r="U347" t="inlineStr"/>
+      <c r="V347" t="inlineStr"/>
+      <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr"/>
+      <c r="Y347" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z347" t="inlineStr"/>
+      <c r="AA347" t="inlineStr"/>
+      <c r="AB347" t="inlineStr"/>
+      <c r="AC347" t="inlineStr"/>
+      <c r="AD347" t="inlineStr"/>
+      <c r="AE347" t="inlineStr"/>
+      <c r="AF347" t="inlineStr"/>
+      <c r="AG347" t="inlineStr"/>
+      <c r="AH347" t="inlineStr"/>
+      <c r="AI347" t="inlineStr"/>
+      <c r="AJ347" t="inlineStr"/>
+      <c r="AK347" t="inlineStr"/>
+      <c r="AL347" t="inlineStr"/>
+      <c r="AM347" t="inlineStr"/>
+      <c r="AN347" t="inlineStr"/>
+      <c r="AO347" t="inlineStr"/>
+      <c r="AP347" t="inlineStr"/>
+      <c r="AQ347" t="inlineStr"/>
+      <c r="AR347" t="inlineStr"/>
+      <c r="AS347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>vocab:1328</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>environmental data</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr"/>
+      <c r="D348" t="inlineStr"/>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="inlineStr"/>
+      <c r="M348" t="inlineStr"/>
+      <c r="N348" t="inlineStr"/>
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="inlineStr"/>
+      <c r="S348" t="inlineStr"/>
+      <c r="T348" t="inlineStr"/>
+      <c r="U348" t="inlineStr"/>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr"/>
+      <c r="X348" t="inlineStr"/>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z348" t="inlineStr"/>
+      <c r="AA348" t="inlineStr"/>
+      <c r="AB348" t="inlineStr"/>
+      <c r="AC348" t="inlineStr"/>
+      <c r="AD348" t="inlineStr"/>
+      <c r="AE348" t="inlineStr"/>
+      <c r="AF348" t="inlineStr"/>
+      <c r="AG348" t="inlineStr"/>
+      <c r="AH348" t="inlineStr"/>
+      <c r="AI348" t="inlineStr"/>
+      <c r="AJ348" t="inlineStr"/>
+      <c r="AK348" t="inlineStr"/>
+      <c r="AL348" t="inlineStr"/>
+      <c r="AM348" t="inlineStr"/>
+      <c r="AN348" t="inlineStr"/>
+      <c r="AO348" t="inlineStr"/>
+      <c r="AP348" t="inlineStr"/>
+      <c r="AQ348" t="inlineStr"/>
+      <c r="AR348" t="inlineStr"/>
+      <c r="AS348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>vocab:1329</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>food data</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+      <c r="D349" t="inlineStr"/>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="inlineStr"/>
+      <c r="M349" t="inlineStr"/>
+      <c r="N349" t="inlineStr"/>
+      <c r="O349" t="inlineStr"/>
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr"/>
+      <c r="R349" t="inlineStr"/>
+      <c r="S349" t="inlineStr"/>
+      <c r="T349" t="inlineStr"/>
+      <c r="U349" t="inlineStr"/>
+      <c r="V349" t="inlineStr"/>
+      <c r="W349" t="inlineStr"/>
+      <c r="X349" t="inlineStr"/>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr"/>
+      <c r="AA349" t="inlineStr"/>
+      <c r="AB349" t="inlineStr"/>
+      <c r="AC349" t="inlineStr"/>
+      <c r="AD349" t="inlineStr"/>
+      <c r="AE349" t="inlineStr"/>
+      <c r="AF349" t="inlineStr"/>
+      <c r="AG349" t="inlineStr"/>
+      <c r="AH349" t="inlineStr"/>
+      <c r="AI349" t="inlineStr"/>
+      <c r="AJ349" t="inlineStr"/>
+      <c r="AK349" t="inlineStr"/>
+      <c r="AL349" t="inlineStr"/>
+      <c r="AM349" t="inlineStr"/>
+      <c r="AN349" t="inlineStr"/>
+      <c r="AO349" t="inlineStr"/>
+      <c r="AP349" t="inlineStr"/>
+      <c r="AQ349" t="inlineStr"/>
+      <c r="AR349" t="inlineStr"/>
+      <c r="AS349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>vocab:1330</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>toxicology data</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="inlineStr"/>
+      <c r="M350" t="inlineStr"/>
+      <c r="N350" t="inlineStr"/>
+      <c r="O350" t="inlineStr"/>
+      <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="inlineStr"/>
+      <c r="S350" t="inlineStr"/>
+      <c r="T350" t="inlineStr"/>
+      <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr"/>
+      <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr"/>
+      <c r="Y350" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z350" t="inlineStr"/>
+      <c r="AA350" t="inlineStr"/>
+      <c r="AB350" t="inlineStr"/>
+      <c r="AC350" t="inlineStr"/>
+      <c r="AD350" t="inlineStr"/>
+      <c r="AE350" t="inlineStr"/>
+      <c r="AF350" t="inlineStr"/>
+      <c r="AG350" t="inlineStr"/>
+      <c r="AH350" t="inlineStr"/>
+      <c r="AI350" t="inlineStr"/>
+      <c r="AJ350" t="inlineStr"/>
+      <c r="AK350" t="inlineStr"/>
+      <c r="AL350" t="inlineStr"/>
+      <c r="AM350" t="inlineStr"/>
+      <c r="AN350" t="inlineStr"/>
+      <c r="AO350" t="inlineStr"/>
+      <c r="AP350" t="inlineStr"/>
+      <c r="AQ350" t="inlineStr"/>
+      <c r="AR350" t="inlineStr"/>
+      <c r="AS350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>vocab:1331</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>vocab:1319</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="inlineStr"/>
+      <c r="M351" t="inlineStr"/>
+      <c r="N351" t="inlineStr"/>
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="inlineStr"/>
+      <c r="Q351" t="inlineStr"/>
+      <c r="R351" t="inlineStr"/>
+      <c r="S351" t="inlineStr"/>
+      <c r="T351" t="inlineStr"/>
+      <c r="U351" t="inlineStr"/>
+      <c r="V351" t="inlineStr"/>
+      <c r="W351" t="inlineStr"/>
+      <c r="X351" t="inlineStr"/>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr"/>
+      <c r="AA351" t="inlineStr"/>
+      <c r="AB351" t="inlineStr"/>
+      <c r="AC351" t="inlineStr"/>
+      <c r="AD351" t="inlineStr"/>
+      <c r="AE351" t="inlineStr"/>
+      <c r="AF351" t="inlineStr"/>
+      <c r="AG351" t="inlineStr"/>
+      <c r="AH351" t="inlineStr"/>
+      <c r="AI351" t="inlineStr"/>
+      <c r="AJ351" t="inlineStr"/>
+      <c r="AK351" t="inlineStr"/>
+      <c r="AL351" t="inlineStr"/>
+      <c r="AM351" t="inlineStr"/>
+      <c r="AN351" t="inlineStr"/>
+      <c r="AO351" t="inlineStr"/>
+      <c r="AP351" t="inlineStr"/>
+      <c r="AQ351" t="inlineStr"/>
+      <c r="AR351" t="inlineStr"/>
+      <c r="AS351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>vocab:1332</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>head circumference</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>vocab:1333</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="inlineStr"/>
+      <c r="M352" t="inlineStr"/>
+      <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr"/>
+      <c r="S352" t="inlineStr"/>
+      <c r="T352" t="inlineStr"/>
+      <c r="U352" t="inlineStr"/>
+      <c r="V352" t="inlineStr"/>
+      <c r="W352" t="inlineStr"/>
+      <c r="X352" t="inlineStr"/>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z352" t="inlineStr"/>
+      <c r="AA352" t="inlineStr"/>
+      <c r="AB352" t="inlineStr"/>
+      <c r="AC352" t="inlineStr"/>
+      <c r="AD352" t="inlineStr"/>
+      <c r="AE352" t="inlineStr"/>
+      <c r="AF352" t="inlineStr"/>
+      <c r="AG352" t="inlineStr"/>
+      <c r="AH352" t="inlineStr"/>
+      <c r="AI352" t="inlineStr"/>
+      <c r="AJ352" t="inlineStr"/>
+      <c r="AK352" t="inlineStr"/>
+      <c r="AL352" t="inlineStr"/>
+      <c r="AM352" t="inlineStr"/>
+      <c r="AN352" t="inlineStr"/>
+      <c r="AO352" t="inlineStr"/>
+      <c r="AP352" t="inlineStr"/>
+      <c r="AQ352" t="inlineStr"/>
+      <c r="AR352" t="inlineStr"/>
+      <c r="AS352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>vocab:1333</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>anthropometric measuement</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr"/>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="inlineStr"/>
+      <c r="M353" t="inlineStr"/>
+      <c r="N353" t="inlineStr"/>
+      <c r="O353" t="inlineStr"/>
+      <c r="P353" t="inlineStr"/>
+      <c r="Q353" t="inlineStr"/>
+      <c r="R353" t="inlineStr"/>
+      <c r="S353" t="inlineStr"/>
+      <c r="T353" t="inlineStr"/>
+      <c r="U353" t="inlineStr"/>
+      <c r="V353" t="inlineStr"/>
+      <c r="W353" t="inlineStr"/>
+      <c r="X353" t="inlineStr"/>
+      <c r="Y353" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z353" t="inlineStr"/>
+      <c r="AA353" t="inlineStr"/>
+      <c r="AB353" t="inlineStr"/>
+      <c r="AC353" t="inlineStr"/>
+      <c r="AD353" t="inlineStr"/>
+      <c r="AE353" t="inlineStr"/>
+      <c r="AF353" t="inlineStr"/>
+      <c r="AG353" t="inlineStr"/>
+      <c r="AH353" t="inlineStr"/>
+      <c r="AI353" t="inlineStr"/>
+      <c r="AJ353" t="inlineStr"/>
+      <c r="AK353" t="inlineStr"/>
+      <c r="AL353" t="inlineStr"/>
+      <c r="AM353" t="inlineStr"/>
+      <c r="AN353" t="inlineStr"/>
+      <c r="AO353" t="inlineStr"/>
+      <c r="AP353" t="inlineStr"/>
+      <c r="AQ353" t="inlineStr"/>
+      <c r="AR353" t="inlineStr"/>
+      <c r="AS353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>vocab:1334</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>body height</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr"/>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>vocab:1333</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="inlineStr"/>
+      <c r="M354" t="inlineStr"/>
+      <c r="N354" t="inlineStr"/>
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="inlineStr"/>
+      <c r="Q354" t="inlineStr"/>
+      <c r="R354" t="inlineStr"/>
+      <c r="S354" t="inlineStr"/>
+      <c r="T354" t="inlineStr"/>
+      <c r="U354" t="inlineStr"/>
+      <c r="V354" t="inlineStr"/>
+      <c r="W354" t="inlineStr"/>
+      <c r="X354" t="inlineStr"/>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z354" t="inlineStr"/>
+      <c r="AA354" t="inlineStr"/>
+      <c r="AB354" t="inlineStr"/>
+      <c r="AC354" t="inlineStr"/>
+      <c r="AD354" t="inlineStr"/>
+      <c r="AE354" t="inlineStr"/>
+      <c r="AF354" t="inlineStr"/>
+      <c r="AG354" t="inlineStr"/>
+      <c r="AH354" t="inlineStr"/>
+      <c r="AI354" t="inlineStr"/>
+      <c r="AJ354" t="inlineStr"/>
+      <c r="AK354" t="inlineStr"/>
+      <c r="AL354" t="inlineStr"/>
+      <c r="AM354" t="inlineStr"/>
+      <c r="AN354" t="inlineStr"/>
+      <c r="AO354" t="inlineStr"/>
+      <c r="AP354" t="inlineStr"/>
+      <c r="AQ354" t="inlineStr"/>
+      <c r="AR354" t="inlineStr"/>
+      <c r="AS354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>vocab:1335</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>body weight</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr"/>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>vocab:1333</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="inlineStr"/>
+      <c r="M355" t="inlineStr"/>
+      <c r="N355" t="inlineStr"/>
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="inlineStr"/>
+      <c r="Q355" t="inlineStr"/>
+      <c r="R355" t="inlineStr"/>
+      <c r="S355" t="inlineStr"/>
+      <c r="T355" t="inlineStr"/>
+      <c r="U355" t="inlineStr"/>
+      <c r="V355" t="inlineStr"/>
+      <c r="W355" t="inlineStr"/>
+      <c r="X355" t="inlineStr"/>
+      <c r="Y355" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z355" t="inlineStr"/>
+      <c r="AA355" t="inlineStr"/>
+      <c r="AB355" t="inlineStr"/>
+      <c r="AC355" t="inlineStr"/>
+      <c r="AD355" t="inlineStr"/>
+      <c r="AE355" t="inlineStr"/>
+      <c r="AF355" t="inlineStr"/>
+      <c r="AG355" t="inlineStr"/>
+      <c r="AH355" t="inlineStr"/>
+      <c r="AI355" t="inlineStr"/>
+      <c r="AJ355" t="inlineStr"/>
+      <c r="AK355" t="inlineStr"/>
+      <c r="AL355" t="inlineStr"/>
+      <c r="AM355" t="inlineStr"/>
+      <c r="AN355" t="inlineStr"/>
+      <c r="AO355" t="inlineStr"/>
+      <c r="AP355" t="inlineStr"/>
+      <c r="AQ355" t="inlineStr"/>
+      <c r="AR355" t="inlineStr"/>
+      <c r="AS355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>vocab:1336</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>waist circumference</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr"/>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>vocab:1333</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="inlineStr"/>
+      <c r="M356" t="inlineStr"/>
+      <c r="N356" t="inlineStr"/>
+      <c r="O356" t="inlineStr"/>
+      <c r="P356" t="inlineStr"/>
+      <c r="Q356" t="inlineStr"/>
+      <c r="R356" t="inlineStr"/>
+      <c r="S356" t="inlineStr"/>
+      <c r="T356" t="inlineStr"/>
+      <c r="U356" t="inlineStr"/>
+      <c r="V356" t="inlineStr"/>
+      <c r="W356" t="inlineStr"/>
+      <c r="X356" t="inlineStr"/>
+      <c r="Y356" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z356" t="inlineStr"/>
+      <c r="AA356" t="inlineStr"/>
+      <c r="AB356" t="inlineStr"/>
+      <c r="AC356" t="inlineStr"/>
+      <c r="AD356" t="inlineStr"/>
+      <c r="AE356" t="inlineStr"/>
+      <c r="AF356" t="inlineStr"/>
+      <c r="AG356" t="inlineStr"/>
+      <c r="AH356" t="inlineStr"/>
+      <c r="AI356" t="inlineStr"/>
+      <c r="AJ356" t="inlineStr"/>
+      <c r="AK356" t="inlineStr"/>
+      <c r="AL356" t="inlineStr"/>
+      <c r="AM356" t="inlineStr"/>
+      <c r="AN356" t="inlineStr"/>
+      <c r="AO356" t="inlineStr"/>
+      <c r="AP356" t="inlineStr"/>
+      <c r="AQ356" t="inlineStr"/>
+      <c r="AR356" t="inlineStr"/>
+      <c r="AS356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="inlineStr"/>
+      <c r="M357" t="inlineStr"/>
+      <c r="N357" t="inlineStr"/>
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr"/>
+      <c r="S357" t="inlineStr"/>
+      <c r="T357" t="inlineStr"/>
+      <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr"/>
+      <c r="X357" t="inlineStr"/>
+      <c r="Y357" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="Z357" t="inlineStr"/>
+      <c r="AA357" t="inlineStr"/>
+      <c r="AB357" t="inlineStr"/>
+      <c r="AC357" t="inlineStr"/>
+      <c r="AD357" t="inlineStr"/>
+      <c r="AE357" t="inlineStr"/>
+      <c r="AF357" t="inlineStr"/>
+      <c r="AG357" t="inlineStr"/>
+      <c r="AH357" t="inlineStr"/>
+      <c r="AI357" t="inlineStr"/>
+      <c r="AJ357" t="inlineStr"/>
+      <c r="AK357" t="inlineStr"/>
+      <c r="AL357" t="inlineStr"/>
+      <c r="AM357" t="inlineStr"/>
+      <c r="AN357" t="inlineStr"/>
+      <c r="AO357" t="inlineStr"/>
+      <c r="AP357" t="inlineStr"/>
+      <c r="AQ357" t="inlineStr"/>
+      <c r="AR357" t="inlineStr"/>
+      <c r="AS357" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
